--- a/game_template/model/data/floor builder 20170212.xlsx
+++ b/game_template/model/data/floor builder 20170212.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7844" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7815" uniqueCount="217">
   <si>
     <t>width</t>
   </si>
@@ -1949,7 +1949,35 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5027,12 +5055,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="51" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6760,22 +6788,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8503,22 +8531,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10246,22 +10274,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10275,7 +10303,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11131,11 +11159,11 @@
       <c r="G12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>6</v>
+      <c r="H12" s="14">
+        <v>8</v>
+      </c>
+      <c r="I12" s="14">
+        <v>8</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>14</v>
@@ -11177,11 +11205,11 @@
       <c r="Y12" s="9"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">::::D:   (:::::::\  </v>
+        <v xml:space="preserve">::::D: 88(:::::::\  </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'::::D:   (:::::::\  ',</v>
+        <v>'::::D: 88(:::::::\  ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -11206,14 +11234,14 @@
       <c r="G13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>6</v>
+      <c r="H13" s="14">
+        <v>8</v>
+      </c>
+      <c r="I13" s="14">
+        <v>8</v>
+      </c>
+      <c r="J13" s="14">
+        <v>8</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>14</v>
@@ -11252,11 +11280,11 @@
       <c r="Y13" s="9"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">w::) (\   (::www::  </v>
+        <v xml:space="preserve">w::) (\888(::www::  </v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'w::) (\   (::www::  ',</v>
+        <v>'w::) (\888(::www::  ',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -11350,8 +11378,8 @@
       <c r="E15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>6</v>
+      <c r="F15" s="14">
+        <v>8</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>6</v>
@@ -11402,11 +11430,11 @@
       <c r="Y15" s="9"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> w:\       :ww ()   </v>
+        <v xml:space="preserve"> w:\ 8     :ww ()   </v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>' w:\       :ww ()   ',</v>
+        <v>' w:\ 8     :ww ()   ',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -11987,12 +12015,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13720,12 +13748,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15453,12 +15481,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15474,7 +15502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -15790,11 +15818,11 @@
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>6</v>
+      <c r="B5" s="14">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14">
+        <v>8</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>6</v>
@@ -15805,8 +15833,8 @@
       <c r="F5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>6</v>
+      <c r="G5" s="14">
+        <v>8</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>6</v>
@@ -15820,14 +15848,14 @@
       <c r="K5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>6</v>
+      <c r="L5" s="14">
+        <v>8</v>
+      </c>
+      <c r="M5" s="14">
+        <v>8</v>
+      </c>
+      <c r="N5" s="14">
+        <v>8</v>
       </c>
       <c r="O5" s="14" t="s">
         <v>2</v>
@@ -15854,19 +15882,19 @@
       <c r="Y5" s="9"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>:   :   :     : (:::</v>
+        <v>:88 : 8 :  888: (:::</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>':   :   :     : (:::',</v>
+        <v>':88 : 8 :  888: (:::',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>6</v>
+      <c r="B6" s="14">
+        <v>8</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>2</v>
@@ -15880,8 +15908,8 @@
       <c r="F6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>6</v>
+      <c r="G6" s="14">
+        <v>8</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>2</v>
@@ -15898,8 +15926,8 @@
       <c r="L6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>6</v>
+      <c r="M6" s="14">
+        <v>8</v>
       </c>
       <c r="N6" s="14" t="s">
         <v>2</v>
@@ -15929,22 +15957,22 @@
       <c r="Y6" s="9"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>: :::: ::::: :)    :</v>
+        <v>:8::::8:::::8:)    :</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>': :::: ::::: :)    :',</v>
+        <v>':8::::8:::::8:)    :',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>6</v>
+      <c r="B7" s="14">
+        <v>8</v>
+      </c>
+      <c r="C7" s="14">
+        <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>6</v>
@@ -15973,8 +16001,8 @@
       <c r="L7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>6</v>
+      <c r="M7" s="14">
+        <v>8</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>6</v>
@@ -16004,11 +16032,11 @@
       <c r="Y7" s="9"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>:88         8      :</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>':88         8      :',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -16024,8 +16052,8 @@
       <c r="D8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>6</v>
+      <c r="E8" s="14">
+        <v>8</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>6</v>
@@ -16079,11 +16107,11 @@
       <c r="Y8" s="9"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v>:              /::::</v>
+        <v>:   8          /::::</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>':              /::::',</v>
+        <v>':   8          /::::',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -16171,14 +16199,14 @@
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>6</v>
+      <c r="D10" s="14">
+        <v>8</v>
+      </c>
+      <c r="E10" s="14">
+        <v>8</v>
+      </c>
+      <c r="F10" s="14">
+        <v>8</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>6</v>
@@ -16229,11 +16257,11 @@
       <c r="Y10" s="9"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>:)     (:      :   :</v>
+        <v>:) 888 (:      :   :</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>':)     (:      :   :',</v>
+        <v>':) 888 (:      :   :',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -16279,14 +16307,14 @@
       <c r="N11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>6</v>
+      <c r="O11" s="14">
+        <v>8</v>
+      </c>
+      <c r="P11" s="14">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>8</v>
       </c>
       <c r="R11" s="14" t="s">
         <v>6</v>
@@ -16304,11 +16332,11 @@
       <c r="Y11" s="9"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>:       :          :</v>
+        <v>:       :     888  :</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>':       :          :',</v>
+        <v>':       :     888  :',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -16732,8 +16760,8 @@
       <c r="O17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P17" s="14" t="s">
-        <v>6</v>
+      <c r="P17" s="14">
+        <v>8</v>
       </c>
       <c r="Q17" s="14" t="s">
         <v>6</v>
@@ -16754,11 +16782,11 @@
       <c r="Y17" s="9"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v>:       :     :    :</v>
+        <v>:       :     :8   :</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>':       :     :    :',</v>
+        <v>':       :     :8   :',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -16775,7 +16803,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>6</v>
@@ -16801,14 +16829,14 @@
       <c r="M18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N18" s="14" t="s">
-        <v>6</v>
+      <c r="N18" s="14">
+        <v>8</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="P18" s="14" t="s">
-        <v>6</v>
+      <c r="P18" s="14">
+        <v>8</v>
       </c>
       <c r="Q18" s="14" t="s">
         <v>6</v>
@@ -16829,11 +16857,11 @@
       <c r="Y18" s="9"/>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v>:       :     D    :</v>
+        <v>:   :   :    8D8   :</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>':       :     D    :',</v>
+        <v>':   :   :    8D8   :',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -16847,13 +16875,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>6</v>
@@ -16882,8 +16910,8 @@
       <c r="O19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="14" t="s">
-        <v>6</v>
+      <c r="P19" s="14">
+        <v>8</v>
       </c>
       <c r="Q19" s="14" t="s">
         <v>6</v>
@@ -16904,11 +16932,11 @@
       <c r="Y19" s="9"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>:\  :  /: :\B/:    :</v>
+        <v>:\ R:R /: :\B/:8   :</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>':\  :  /: :\B/:    :',</v>
+        <v>':\ R:R /: :\B/:8   :',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -17189,12 +17217,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18922,12 +18950,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20655,12 +20683,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22388,12 +22416,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24121,12 +24149,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="53" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24139,8 +24167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24471,25 +24499,25 @@
         <v>6</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N5" s="14" t="s">
         <v>6</v>
@@ -24519,11 +24547,11 @@
       <c r="Y5" s="9"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>:        L         :</v>
+        <v>:     /::L::\      :</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>':        L         :',</v>
+        <v>':     /::L::\      :',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -24546,25 +24574,25 @@
         <v>6</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N6" s="14" t="s">
         <v>6</v>
@@ -24594,11 +24622,11 @@
       <c r="Y6" s="9"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>:     : ``` :      :</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>':     : ``` :      :',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -24627,13 +24655,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>6</v>
@@ -24669,11 +24697,11 @@
       <c r="Y7" s="9"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>:     B     B      :</v>
+        <v>:     B ``` B      :</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>':     B     B      :',</v>
+        <v>':     B ``` B      :',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -24702,13 +24730,13 @@
         <v>6</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>6</v>
@@ -24744,11 +24772,11 @@
       <c r="Y8" s="9"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>:       ```        :</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>':       ```        :',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -24777,13 +24805,13 @@
         <v>6</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>6</v>
@@ -24819,11 +24847,11 @@
       <c r="Y9" s="9"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>:     B     B      :</v>
+        <v>:     B ``` B      :</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>':     B     B      :',</v>
+        <v>':     B ``` B      :',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -24852,13 +24880,13 @@
         <v>6</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>6</v>
@@ -24894,11 +24922,11 @@
       <c r="Y10" s="9"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>:       ```        :</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>':       ```        :',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -24927,13 +24955,13 @@
         <v>6</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>6</v>
@@ -24969,11 +24997,11 @@
       <c r="Y11" s="9"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>:     B     B      :</v>
+        <v>:     B ``` B      :</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>':     B     B      :',</v>
+        <v>':     B ``` B      :',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -25002,13 +25030,13 @@
         <v>6</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>197</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>6</v>
@@ -25044,11 +25072,11 @@
       <c r="Y12" s="9"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v>:        `         :</v>
+        <v>:       ```        :</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>':        `         :',</v>
+        <v>':       ```        :',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -25077,13 +25105,13 @@
         <v>6</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>197</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>6</v>
@@ -25119,11 +25147,11 @@
       <c r="Y13" s="9"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v>:     B  `  B      :</v>
+        <v>:     B ``` B      :</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>':     B  `  B      :',</v>
+        <v>':     B ``` B      :',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -25152,13 +25180,13 @@
         <v>6</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>197</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>6</v>
@@ -25194,11 +25222,11 @@
       <c r="Y14" s="9"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v>:        `         :</v>
+        <v>:       ```        :</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>':        `         :',</v>
+        <v>':       ```        :',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -25227,13 +25255,13 @@
         <v>6</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>197</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>6</v>
@@ -25269,11 +25297,11 @@
       <c r="Y15" s="9"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v>:        `         :</v>
+        <v>:       ```        :</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>':        `         :',</v>
+        <v>':       ```        :',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -25302,13 +25330,13 @@
         <v>11</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>197</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>12</v>
@@ -25344,11 +25372,11 @@
       <c r="Y16" s="9"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v>:     /\ ` /\      :</v>
+        <v>:     /\```/\      :</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>':     /\ ` /\      :',</v>
+        <v>':     /\```/\      :',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -25854,12 +25882,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27887,12 +27915,12 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29620,12 +29648,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="51" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31353,22 +31381,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y13 A18:Y25 A14:C17 G14:Y17">
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="49" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z13 A18:Z25 A14:C17 G14:Z17">
-    <cfRule type="cellIs" dxfId="44" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="47" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33096,12 +33124,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34829,12 +34857,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36654,12 +36682,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y26">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38387,12 +38415,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40120,22 +40148,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder 20170212.xlsx
+++ b/game_template/model/data/floor builder 20170212.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="11" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8247" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8248" uniqueCount="235">
   <si>
     <t>width</t>
   </si>
@@ -2122,7 +2122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2189,6 +2189,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2198,14 +2201,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2219,7 +2215,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6999,12 +7002,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8732,22 +8735,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="31" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="30" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10475,22 +10478,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="26" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12218,22 +12221,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="22" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13959,12 +13962,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15692,12 +15695,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17425,12 +17428,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19161,12 +19164,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20894,12 +20897,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21421,7 +21424,7 @@
         <v>6</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="14" t="s">
         <v>6</v>
@@ -21442,11 +21445,11 @@
       <c r="Y7" s="9"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">\     /:) :w:     : </v>
+        <v xml:space="preserve">\     /:) :w:  Z  : </v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'\     /:) :w:     : ',</v>
+        <v>'\     /:) :w:  Z  : ',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -21628,7 +21631,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>6</v>
@@ -21667,11 +21670,11 @@
       <c r="Y10" s="9"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">::::  (: T    /:\   </v>
+        <v xml:space="preserve">::::  (: Z    /:\   </v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'::::  (: T    /:\   ',</v>
+        <v>'::::  (: Z    /:\   ',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -21808,7 +21811,7 @@
         <v>6</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
@@ -21817,11 +21820,11 @@
       <c r="Y12" s="9"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">)  ::         :     </v>
+        <v>)  ::         :    Z</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>')  ::         :     ',</v>
+        <v>')  ::         :    Z',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -22240,7 +22243,7 @@
         <v>6</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>6</v>
@@ -22267,11 +22270,11 @@
       <c r="Y18" s="9"/>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">T    (   `   T      </v>
+        <v xml:space="preserve">T    (   `   Z      </v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>'T    (   `   T      ',</v>
+        <v>'T    (   `   Z      ',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -22627,12 +22630,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24378,7 +24381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -24512,7 +24515,7 @@
         <v>2</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>6</v>
@@ -24533,11 +24536,11 @@
       <c r="Y2" s="9"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>:   D    :wwww:   (:</v>
+        <v>:   D    :wwww:Z  (:</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>':   D    :wwww:   (:',</v>
+        <v>':   D    :wwww:Z  (:',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -24941,7 +24944,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>6</v>
@@ -24983,11 +24986,11 @@
       <c r="Y8" s="9"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v>:M`:          www::w</v>
+        <v>:M`:    Z     www::w</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>':M`:          www::w',</v>
+        <v>':M`:    Z     www::w',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -26093,12 +26096,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27826,12 +27829,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27845,7 +27848,7 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -29859,12 +29862,12 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31972,7 +31975,7 @@
         <v>6</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="R5" s="14" t="s">
         <v>6</v>
@@ -31990,11 +31993,11 @@
       <c r="Y5" s="9"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">         `      T T </v>
+        <v xml:space="preserve">         `      Z T </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'         `      T T ',</v>
+        <v>'         `      Z T ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -32080,7 +32083,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>6</v>
@@ -32098,7 +32101,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>197</v>
@@ -32140,11 +32143,11 @@
       <c r="Y7" s="9"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  T      `   T      </v>
+        <v xml:space="preserve">  Z     Z`   T      </v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'  T      `   T      ',</v>
+        <v>'  Z     Z`   T      ',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -32488,7 +32491,7 @@
         <v>197</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>6</v>
@@ -32509,17 +32512,19 @@
         <v>6</v>
       </c>
       <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
+      <c r="V12" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="9"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ``` `       </v>
+        <v xml:space="preserve">        ``` `Z      z</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'        ``` `       ',</v>
+        <v>'        ``` `Z      z',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -32602,7 +32607,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -32665,11 +32670,11 @@
       <c r="Y14" s="9"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> T /:\      `    T  </v>
+        <v xml:space="preserve"> Z /:\      `    T  </v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>' T /:\      `    T  ',</v>
+        <v>' Z /:\      `    T  ',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -33568,7 +33573,7 @@
         <v>6</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="S3" s="14" t="s">
         <v>6</v>
@@ -33583,11 +33588,11 @@
       <c r="Y3" s="9"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">             T   T  </v>
+        <v xml:space="preserve">             T   Z  </v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'             T   T  ',</v>
+        <v>'             T   Z  ',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -33598,7 +33603,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>6</v>
@@ -33658,11 +33663,11 @@
       <c r="Y4" s="9"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">T    T /:D:\   T    </v>
+        <v xml:space="preserve">T Z  T /:D:\   T    </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'T    T /:D:\   T    ',</v>
+        <v>'T Z  T /:D:\   T    ',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -34060,7 +34065,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>6</v>
@@ -34078,7 +34083,7 @@
         <v>6</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>6</v>
@@ -34108,11 +34113,11 @@
       <c r="Y10" s="9"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  :)  B  `  B  (:   </v>
+        <v xml:space="preserve">  :)  Z  `  Z  (:   </v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'  :)  B  `  B  (:   ',</v>
+        <v>'  :)  Z  `  Z  (:   ',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -34210,7 +34215,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>6</v>
@@ -34228,7 +34233,7 @@
         <v>6</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="N12" s="14" t="s">
         <v>6</v>
@@ -34258,11 +34263,11 @@
       <c r="Y12" s="9"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  :\  B  `  B  /:   </v>
+        <v xml:space="preserve">  :\  Z  `  Z  /:   </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'  :\  B  `  B  /:   ',</v>
+        <v>'  :\  Z  `  Z  /:   ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -34534,7 +34539,7 @@
         <v>6</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="P16" s="14" t="s">
         <v>6</v>
@@ -34558,11 +34563,11 @@
       <c r="Y16" s="9"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">       :   :        </v>
+        <v xml:space="preserve">       :   :  Z     </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'       :   :        ',</v>
+        <v>'       :   :  Z     ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -34579,7 +34584,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>6</v>
@@ -34633,11 +34638,11 @@
       <c r="Y17" s="9"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> T     :\ /:    T   </v>
+        <v xml:space="preserve"> T  Z  :\ /:    T   </v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>' T     :\ /:    T   ',</v>
+        <v>' T  Z  :\ /:    T   ',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -34717,7 +34722,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>6</v>
@@ -34783,11 +34788,11 @@
       <c r="Y19" s="9"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">T                   </v>
+        <v xml:space="preserve">Z                   </v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'T                   ',</v>
+        <v>'Z                   ',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -35271,7 +35276,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>2</v>
@@ -35283,7 +35288,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>6</v>
@@ -35316,11 +35321,11 @@
       <c r="Y3" s="9"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>::)    B:`:B     (::</v>
+        <v>::)    Z:`:Z     (::</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'::)    B:`:B     (::',</v>
+        <v>'::)    Z:`:Z     (::',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -35727,7 +35732,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>6</v>
@@ -35766,11 +35771,11 @@
       <c r="Y9" s="9"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>;:\      B       /::</v>
+        <v>;:\      Z       /::</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>';:\      B       /::',</v>
+        <v>';:\      Z       /::',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -36078,7 +36083,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -36141,11 +36146,11 @@
       <c r="Y14" s="9"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v>:   /\        /\   :</v>
+        <v>:Z  /\        /\   :</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>':   /\        /\   :',</v>
+        <v>':Z  /\        /\   :',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -40377,7 +40382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>

--- a/game_template/model/data/floor builder 20170212.xlsx
+++ b/game_template/model/data/floor builder 20170212.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="11" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="11" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -24381,7 +24381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -26114,8 +26114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB1:AB20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26455,7 +26455,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>2</v>
@@ -26494,11 +26494,11 @@
       <c r="Y5" s="9"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>:     /::L::\      :</v>
+        <v>:     /::l::\      :</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>':     /::L::\      :',</v>
+        <v>':     /::l::\      :',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -27848,8 +27848,8 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36825,7 +36825,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB1:AB20"/>
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36916,10 +36916,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>6</v>
@@ -36979,11 +36979,11 @@
       <c r="Y2" s="9"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>:?      (:)       ?:</v>
+        <v>:,D     (:)       ?:</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>':?      (:)       ?:',</v>
+        <v>':,D     (:)       ?:',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -36991,10 +36991,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>6</v>
@@ -37054,11 +37054,11 @@
       <c r="Y3" s="9"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>:::                :</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>':::                :',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -37414,7 +37414,7 @@
         <v>6</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="S8" s="14" t="s">
         <v>127</v>
@@ -37429,11 +37429,11 @@
       <c r="Y8" s="9"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v>:\               Dx:</v>
+        <v>:\               _x:</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>':\               Dx:',</v>
+        <v>':\               _x:',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -37564,7 +37564,7 @@
         <v>6</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="S10" s="14" t="s">
         <v>25</v>
@@ -37579,11 +37579,11 @@
       <c r="Y10" s="9"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>W`D  ::::::::::  Dj:</v>
+        <v>W`D  ::::::::::  _j:</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'W`D  ::::::::::  Dj:',</v>
+        <v>'W`D  ::::::::::  _j:',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -37654,11 +37654,11 @@
       <c r="Y11" s="9"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>:::     :        :::</v>
+        <v>:::              :::</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>':::     :        :::',</v>
+        <v>':::              :::',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -37714,7 +37714,7 @@
         <v>6</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="S12" s="14" t="s">
         <v>127</v>
@@ -37729,11 +37729,11 @@
       <c r="Y12" s="9"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v>:)               Dx:</v>
+        <v>:)               _x:</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>':)               Dx:',</v>
+        <v>':)               _x:',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -38233,7 +38233,7 @@
         <v>6</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q19" s="14" t="s">
         <v>2</v>
@@ -38254,11 +38254,11 @@
       <c r="Y19" s="9"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>:j`:   :\ /:    :`j:</v>
+        <v>:j`:   :\ /:   ?:`j:</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>':j`:   :\ /:    :`j:',</v>
+        <v>':j`:   :\ /:   ?:`j:',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">

--- a/game_template/model/data/floor builder 20170212.xlsx
+++ b/game_template/model/data/floor builder 20170212.xlsx
@@ -32,11 +32,12 @@
     <sheet name="Altar of S" sheetId="60" r:id="rId18"/>
     <sheet name="Ruins" sheetId="54" r:id="rId19"/>
     <sheet name="Tomb" sheetId="63" r:id="rId20"/>
-    <sheet name="Final Room" sheetId="65" r:id="rId21"/>
-    <sheet name="Tiles" sheetId="56" r:id="rId22"/>
+    <sheet name="Arena" sheetId="67" r:id="rId21"/>
+    <sheet name="Final Room" sheetId="65" r:id="rId22"/>
+    <sheet name="Tiles" sheetId="56" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">Tiles!$C$1:$C$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">Tiles!$C$1:$C$64</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8248" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8652" uniqueCount="236">
   <si>
     <t>width</t>
   </si>
@@ -1938,6 +1939,9 @@
       <t>,</t>
     </r>
   </si>
+  <si>
+    <t>F</t>
+  </si>
 </sst>
 </file>
 
@@ -1988,7 +1992,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2010,6 +2014,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2122,7 +2132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2192,12 +2202,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5269,12 +5338,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="61" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7002,12 +7071,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8735,22 +8804,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10478,22 +10547,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12221,22 +12290,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13962,12 +14031,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15695,12 +15764,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17428,12 +17497,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19164,12 +19233,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20897,12 +20966,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22630,12 +22699,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24363,12 +24432,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="51" priority="2">
+    <cfRule type="expression" dxfId="59" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26096,12 +26165,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26115,6 +26184,1808 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="20" width="4.140625" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="5"/>
+      <c r="AA1" t="str">
+        <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB1" t="str">
+        <f>"'"&amp;AA1&amp;"',"</f>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="9"/>
+      <c r="AA2" t="str">
+        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB2" t="str">
+        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="9"/>
+      <c r="AA3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="9"/>
+      <c r="AA4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="9"/>
+      <c r="AA5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="9"/>
+      <c r="AA6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="9"/>
+      <c r="AA7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                   /</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="1"/>
+        <v>'                   /',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="9"/>
+      <c r="AA8" t="str">
+        <f t="shared" si="0"/>
+        <v>\                  :</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="1"/>
+        <v>'\                  :',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="9"/>
+      <c r="AA9" t="str">
+        <f t="shared" si="0"/>
+        <v>:::\              /:</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="1"/>
+        <v>':::\              /:',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="9"/>
+      <c r="AA10" t="str">
+        <f t="shared" si="0"/>
+        <v>:``:              ::</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="1"/>
+        <v>':``:              ::',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="9"/>
+      <c r="AA11" t="str">
+        <f t="shared" si="0"/>
+        <v>W``F              `E</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="1"/>
+        <v>'W``F              `E',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="9"/>
+      <c r="AA12" t="str">
+        <f t="shared" si="0"/>
+        <v>:``:              ::</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="1"/>
+        <v>':``:              ::',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="9"/>
+      <c r="AA13" t="str">
+        <f t="shared" si="0"/>
+        <v>:::)              (:</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="1"/>
+        <v>':::)              (:',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="9"/>
+      <c r="AA14" t="str">
+        <f t="shared" si="0"/>
+        <v>)                  :</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="1"/>
+        <v>')                  :',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="9"/>
+      <c r="AA15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                   (</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="1"/>
+        <v>'                   (',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="9"/>
+      <c r="AA16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="9"/>
+      <c r="AA17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="9"/>
+      <c r="AA18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="9"/>
+      <c r="AA19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="9"/>
+      <c r="AA20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <f>COLUMN()</f>
+        <v>1</v>
+      </c>
+      <c r="B21" s="31">
+        <f>COLUMN()</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="31">
+        <f>COLUMN()</f>
+        <v>3</v>
+      </c>
+      <c r="D21" s="31">
+        <f>COLUMN()</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="31">
+        <f>COLUMN()</f>
+        <v>5</v>
+      </c>
+      <c r="F21" s="31">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="G21" s="31">
+        <f>COLUMN()</f>
+        <v>7</v>
+      </c>
+      <c r="H21" s="31">
+        <f>COLUMN()</f>
+        <v>8</v>
+      </c>
+      <c r="I21" s="31">
+        <f>COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="J21" s="31">
+        <f>COLUMN()</f>
+        <v>10</v>
+      </c>
+      <c r="K21" s="31">
+        <f>COLUMN()</f>
+        <v>11</v>
+      </c>
+      <c r="L21" s="31">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+      <c r="M21" s="31">
+        <f>COLUMN()</f>
+        <v>13</v>
+      </c>
+      <c r="N21" s="31">
+        <f>COLUMN()</f>
+        <v>14</v>
+      </c>
+      <c r="O21" s="31">
+        <f>COLUMN()</f>
+        <v>15</v>
+      </c>
+      <c r="P21" s="31">
+        <f>COLUMN()</f>
+        <v>16</v>
+      </c>
+      <c r="Q21" s="31">
+        <f>COLUMN()</f>
+        <v>17</v>
+      </c>
+      <c r="R21" s="31">
+        <f>COLUMN()</f>
+        <v>18</v>
+      </c>
+      <c r="S21" s="31">
+        <f>COLUMN()</f>
+        <v>19</v>
+      </c>
+      <c r="T21" s="31">
+        <f>COLUMN()</f>
+        <v>20</v>
+      </c>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="9"/>
+      <c r="AA21" t="str">
+        <f t="shared" si="0"/>
+        <v>1234567891011121314151617181920</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="1"/>
+        <v>'1234567891011121314151617181920',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="9"/>
+      <c r="AA22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="9"/>
+      <c r="AA23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="9"/>
+      <c r="AA24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="13"/>
+      <c r="AA25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:T21">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:T21">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -27829,12 +29700,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27843,7 +29714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
@@ -29862,12 +31733,12 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31595,12 +33466,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33330,22 +35201,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y13 A18:Y25 A14:C17 G14:Y17">
-    <cfRule type="expression" dxfId="47" priority="4">
+    <cfRule type="expression" dxfId="55" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z13 A18:Z25 A14:C17 G14:Z17">
-    <cfRule type="cellIs" dxfId="46" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="53" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35073,12 +36944,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="51" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36806,12 +38677,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38631,12 +40502,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y26">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="47" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40364,12 +42235,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42097,22 +43968,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="35" priority="4">
+    <cfRule type="expression" dxfId="43" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="34" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder 20170212.xlsx
+++ b/game_template/model/data/floor builder 20170212.xlsx
@@ -2210,7 +2210,119 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="78">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5338,12 +5450,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="77" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="60" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7071,12 +7183,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8804,22 +8916,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="37" priority="4">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="36" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="51" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10547,22 +10659,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="49" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="47" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12290,22 +12402,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="45" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14031,12 +14143,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15764,12 +15876,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17497,12 +17609,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19233,12 +19345,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20966,12 +21078,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22699,12 +22811,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24432,12 +24544,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="75" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="58" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26165,12 +26277,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26184,7 +26296,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26196,7 +26308,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>6</v>
@@ -26220,19 +26332,19 @@
         <v>6</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>6</v>
@@ -26253,7 +26365,7 @@
         <v>6</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -26262,11 +26374,11 @@
       <c r="Y1" s="5"/>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v xml:space="preserve">                    </v>
+        <v>j       (:R:)      j</v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'                    ',</v>
+        <v>'j       (:R:)      j',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -26595,7 +26707,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>6</v>
@@ -26610,7 +26722,7 @@
         <v>6</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>6</v>
@@ -26637,11 +26749,11 @@
       <c r="Y6" s="9"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">        !    !      </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'        !    !      ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -26670,7 +26782,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>6</v>
@@ -26685,7 +26797,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>6</v>
@@ -26712,11 +26824,11 @@
       <c r="Y7" s="9"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                   /</v>
+        <v xml:space="preserve">        !    !     /</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'                   /',</v>
+        <v>'        !    !     /',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -26745,7 +26857,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>6</v>
@@ -26760,7 +26872,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>6</v>
@@ -26787,11 +26899,11 @@
       <c r="Y8" s="9"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v>\                  :</v>
+        <v>\       !    !     :</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>'\                  :',</v>
+        <v>'\       !    !     :',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -27195,7 +27307,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>6</v>
@@ -27210,7 +27322,7 @@
         <v>6</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="O14" s="14" t="s">
         <v>6</v>
@@ -27237,11 +27349,11 @@
       <c r="Y14" s="9"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v>)                  :</v>
+        <v>)       !    !     :</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>')                  :',</v>
+        <v>')       !    !     :',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -27270,7 +27382,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>6</v>
@@ -27285,7 +27397,7 @@
         <v>6</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="O15" s="14" t="s">
         <v>6</v>
@@ -27312,11 +27424,11 @@
       <c r="Y15" s="9"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                   (</v>
+        <v xml:space="preserve">        !    !     (</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'                   (',</v>
+        <v>'        !    !     (',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -27345,7 +27457,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>6</v>
@@ -27360,7 +27472,7 @@
         <v>6</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="O16" s="14" t="s">
         <v>6</v>
@@ -27387,11 +27499,11 @@
       <c r="Y16" s="9"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">        !    !      </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'        !    !      ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -27621,7 +27733,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -27645,19 +27757,19 @@
         <v>6</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N20" s="14" t="s">
         <v>6</v>
@@ -27678,7 +27790,7 @@
         <v>6</v>
       </c>
       <c r="T20" s="14" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
@@ -27687,11 +27799,11 @@
       <c r="Y20" s="9"/>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>j       /:R:\      j</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'j       /:R:\      j',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -27957,22 +28069,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29700,12 +29812,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31733,12 +31845,12 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33466,12 +33578,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="73" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35201,22 +35313,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y13 A18:Y25 A14:C17 G14:Y17">
-    <cfRule type="expression" dxfId="55" priority="4">
+    <cfRule type="expression" dxfId="71" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z13 A18:Z25 A14:C17 G14:Z17">
-    <cfRule type="cellIs" dxfId="54" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="69" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36944,12 +37056,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="51" priority="2">
+    <cfRule type="expression" dxfId="67" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38677,12 +38789,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="65" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40502,12 +40614,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y26">
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42235,12 +42347,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="61" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43968,22 +44080,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="43" priority="4">
+    <cfRule type="expression" dxfId="59" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder 20170212.xlsx
+++ b/game_template/model/data/floor builder 20170212.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="10" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="11" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8652" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8646" uniqueCount="236">
   <si>
     <t>width</t>
   </si>
@@ -2210,7 +2210,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2250,27 +2264,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5352,12 +5345,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="62" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="62" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7085,22 +7078,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="39" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="38" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8828,22 +8821,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="35" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="34" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10571,22 +10564,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="31" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="30" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12312,12 +12305,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14045,12 +14038,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15778,12 +15771,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17514,12 +17507,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19247,12 +19240,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20980,12 +20973,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22713,12 +22706,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24446,12 +24439,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="60" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24552,7 +24545,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>6</v>
@@ -24609,7 +24602,7 @@
         <v>6</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
@@ -24618,16 +24611,16 @@
       <c r="Y2" s="9"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">                    </v>
+        <v>!                  !</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'                    ',</v>
+        <v>'!                  !',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>6</v>
@@ -24684,7 +24677,7 @@
         <v>6</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -24693,16 +24686,16 @@
       <c r="Y3" s="9"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>!                  !</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'!                  !',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>6</v>
@@ -24759,7 +24752,7 @@
         <v>6</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
@@ -24768,16 +24761,16 @@
       <c r="Y4" s="9"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>!                  (</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'!                  (',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>6</v>
@@ -24843,11 +24836,11 @@
       <c r="Y5" s="9"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">)                   </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>')                   ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -25163,8 +25156,8 @@
       <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>6</v>
+      <c r="E10" s="14">
+        <v>8</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>6</v>
@@ -25202,8 +25195,8 @@
       <c r="Q10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="14" t="s">
-        <v>6</v>
+      <c r="R10" s="14">
+        <v>8</v>
       </c>
       <c r="S10" s="14" t="s">
         <v>2</v>
@@ -25218,11 +25211,11 @@
       <c r="Y10" s="9"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>:``:              ::</v>
+        <v>:``:8            8::</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>':``:              ::',</v>
+        <v>':``:8            8::',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -25238,8 +25231,8 @@
       <c r="D11" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>6</v>
+      <c r="E11" s="14">
+        <v>8</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>6</v>
@@ -25277,8 +25270,8 @@
       <c r="Q11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R11" s="14" t="s">
-        <v>6</v>
+      <c r="R11" s="14">
+        <v>8</v>
       </c>
       <c r="S11" s="14" t="s">
         <v>197</v>
@@ -25293,11 +25286,11 @@
       <c r="Y11" s="9"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>W``F              `E</v>
+        <v>W``F8            8`E</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'W``F              `E',</v>
+        <v>'W``F8            8`E',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -25313,8 +25306,8 @@
       <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>6</v>
+      <c r="E12" s="14">
+        <v>8</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>6</v>
@@ -25352,8 +25345,8 @@
       <c r="Q12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="14" t="s">
-        <v>6</v>
+      <c r="R12" s="14">
+        <v>8</v>
       </c>
       <c r="S12" s="14" t="s">
         <v>2</v>
@@ -25368,11 +25361,11 @@
       <c r="Y12" s="9"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v>:``:              ::</v>
+        <v>:``:8            8::</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>':``:              ::',</v>
+        <v>':``:8            8::',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -25602,7 +25595,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>6</v>
@@ -25668,16 +25661,16 @@
       <c r="Y16" s="9"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        !    !      </v>
+        <v xml:space="preserve">\       !    !      </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'        !    !      ',</v>
+        <v>'\       !    !      ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>6</v>
@@ -25743,16 +25736,16 @@
       <c r="Y17" s="9"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">!                   </v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'!                   ',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>6</v>
@@ -25818,16 +25811,16 @@
       <c r="Y18" s="9"/>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">!                   </v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'!                   ',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>6</v>
@@ -25848,10 +25841,10 @@
         <v>6</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>6</v>
@@ -25860,10 +25853,10 @@
         <v>6</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N19" s="14" t="s">
         <v>6</v>
@@ -25893,11 +25886,11 @@
       <c r="Y19" s="9"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">!      /\  /\       </v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'!      /\  /\       ',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -25914,19 +25907,19 @@
         <v>6</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>2</v>
@@ -25938,19 +25931,19 @@
         <v>2</v>
       </c>
       <c r="M20" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="14" t="s">
-        <v>6</v>
       </c>
       <c r="R20" s="14" t="s">
         <v>6</v>
@@ -25968,11 +25961,11 @@
       <c r="Y20" s="9"/>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v>j       /:R:\      j</v>
+        <v>j   /!!!::R:!!!!\  j</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'j       /:R:\      j',</v>
+        <v>'j   /!!!::R:!!!!\  j',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -26238,22 +26231,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26267,7 +26260,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="U1" sqref="U1:U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26339,21 +26332,22 @@
       <c r="T1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="31">
-        <f>ROW()-1</f>
-        <v>0</v>
-      </c>
+      <c r="U1" s="31"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="5"/>
+      <c r="Z1" s="31">
+        <f>ROW()-1</f>
+        <v>0</v>
+      </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v>::::::::::::::::::::0</v>
+        <v>::::::::::::::::::::</v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'::::::::::::::::::::0',</v>
+        <v>'::::::::::::::::::::',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -26417,21 +26411,22 @@
       <c r="T2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="31">
-        <f t="shared" ref="U2:U20" si="0">ROW()-1</f>
-        <v>1</v>
-      </c>
+      <c r="U2" s="31"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="9"/>
+      <c r="Z2" s="31">
+        <f t="shared" ref="Z2:Z20" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="1">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>:)     : j :      (:1</v>
+        <v>:)     : j :      (:</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="2">"'"&amp;AA2&amp;"',"</f>
-        <v>':)     : j :      (:1',</v>
+        <v>':)     : j :      (:',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -26495,21 +26490,22 @@
       <c r="T3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="U3" s="31"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="9"/>
+      <c r="Z3" s="31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="AA3" t="str">
         <f t="shared" si="1"/>
-        <v>:      :   :       :2</v>
+        <v>:      :   :       :</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="2"/>
-        <v>':      :   :       :2',</v>
+        <v>':      :   :       :',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -26573,21 +26569,22 @@
       <c r="T4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="31">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="U4" s="31"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="9"/>
+      <c r="Z4" s="31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="AA4" t="str">
         <f t="shared" si="1"/>
-        <v>:      (:D:)       :3</v>
+        <v>:      (:D:)       :</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="2"/>
-        <v>':      (:D:)       :3',</v>
+        <v>':      (:D:)       :',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -26651,21 +26648,22 @@
       <c r="T5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="31">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="U5" s="31"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="9"/>
+      <c r="Z5" s="31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="AA5" t="str">
         <f t="shared" si="1"/>
-        <v>:                  :4</v>
+        <v>:                  :</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="2"/>
-        <v>':                  :4',</v>
+        <v>':                  :',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -26729,21 +26727,22 @@
       <c r="T6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="31">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="U6" s="31"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="9"/>
+      <c r="Z6" s="31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="AA6" t="str">
         <f t="shared" si="1"/>
-        <v>:R                 :5</v>
+        <v>:R                 :</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="2"/>
-        <v>':R                 :5',</v>
+        <v>':R                 :',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -26807,21 +26806,22 @@
       <c r="T7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U7" s="31">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
+      <c r="U7" s="31"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="9"/>
+      <c r="Z7" s="31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="AA7" t="str">
         <f t="shared" si="1"/>
-        <v>:B  B              :6</v>
+        <v>:B  B              :</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="2"/>
-        <v>':B  B              :6',</v>
+        <v>':B  B              :',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -26885,21 +26885,22 @@
       <c r="T8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U8" s="31">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="U8" s="31"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="9"/>
+      <c r="Z8" s="31">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="AA8" t="str">
         <f t="shared" si="1"/>
-        <v>:::::```     B:\   :7</v>
+        <v>:::::```     B:\   :</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="2"/>
-        <v>':::::```     B:\   :7',</v>
+        <v>':::::```     B:\   :',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -26963,21 +26964,22 @@
       <c r="T9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U9" s="31">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="U9" s="31"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="9"/>
+      <c r="Z9" s="31">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="AA9" t="str">
         <f t="shared" si="1"/>
-        <v>:`````¬```     (\ /:8</v>
+        <v>:`````¬```     (\ /:</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="2"/>
-        <v>':`````¬```     (\ /:8',</v>
+        <v>':`````¬```     (\ /:',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -27041,21 +27043,22 @@
       <c r="T10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U10" s="31">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
+      <c r="U10" s="31"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="9"/>
+      <c r="Z10" s="31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="AA10" t="str">
         <f t="shared" si="1"/>
-        <v>:````¬¬````     (:::9</v>
+        <v>:````¬¬````     (:::</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="2"/>
-        <v>':````¬¬````     (:::9',</v>
+        <v>':````¬¬````     (:::',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -27119,21 +27122,22 @@
       <c r="T11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U11" s="31">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="U11" s="31"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="9"/>
+      <c r="Z11" s="31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="AA11" t="str">
         <f t="shared" si="1"/>
-        <v>:`L`¬¬¬¬¬¬`````````E10</v>
+        <v>:`L`¬¬¬¬¬¬`````````E</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="2"/>
-        <v>':`L`¬¬¬¬¬¬`````````E10',</v>
+        <v>':`L`¬¬¬¬¬¬`````````E',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -27197,21 +27201,22 @@
       <c r="T12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U12" s="31">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
+      <c r="U12" s="31"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="9"/>
+      <c r="Z12" s="31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="AA12" t="str">
         <f t="shared" si="1"/>
-        <v>:````¬¬````     /:::11</v>
+        <v>:````¬¬````     /:::</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="2"/>
-        <v>':````¬¬````     /:::11',</v>
+        <v>':````¬¬````     /:::',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -27275,21 +27280,22 @@
       <c r="T13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U13" s="31">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
+      <c r="U13" s="31"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="9"/>
+      <c r="Z13" s="31">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="AA13" t="str">
         <f t="shared" si="1"/>
-        <v>:`````¬```     /) (:12</v>
+        <v>:`````¬```     /) (:</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="2"/>
-        <v>':`````¬```     /) (:12',</v>
+        <v>':`````¬```     /) (:',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -27353,21 +27359,22 @@
       <c r="T14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U14" s="31">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
+      <c r="U14" s="31"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="9"/>
+      <c r="Z14" s="31">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="AA14" t="str">
         <f t="shared" si="1"/>
-        <v>:::::```     B:)   :13</v>
+        <v>:::::```     B:)   :</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="2"/>
-        <v>':::::```     B:)   :13',</v>
+        <v>':::::```     B:)   :',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -27431,21 +27438,22 @@
       <c r="T15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U15" s="31">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
+      <c r="U15" s="31"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="9"/>
+      <c r="Z15" s="31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="AA15" t="str">
         <f t="shared" si="1"/>
-        <v>:B  B              :14</v>
+        <v>:B  B              :</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="2"/>
-        <v>':B  B              :14',</v>
+        <v>':B  B              :',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -27509,21 +27517,22 @@
       <c r="T16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="31">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+      <c r="U16" s="31"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="9"/>
+      <c r="Z16" s="31">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="AA16" t="str">
         <f t="shared" si="1"/>
-        <v>:x                 :15</v>
+        <v>:x                 :</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="2"/>
-        <v>':x                 :15',</v>
+        <v>':x                 :',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -27587,21 +27596,22 @@
       <c r="T17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U17" s="31">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
+      <c r="U17" s="31"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="9"/>
+      <c r="Z17" s="31">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="AA17" t="str">
         <f t="shared" si="1"/>
-        <v>:      /:D:\       :16</v>
+        <v>:      /:D:\       :</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="2"/>
-        <v>':      /:D:\       :16',</v>
+        <v>':      /:D:\       :',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -27665,21 +27675,22 @@
       <c r="T18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U18" s="31">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
+      <c r="U18" s="31"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="9"/>
+      <c r="Z18" s="31">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="AA18" t="str">
         <f t="shared" si="1"/>
-        <v>:      :   :       :17</v>
+        <v>:      :   :       :</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="2"/>
-        <v>':      :   :       :17',</v>
+        <v>':      :   :       :',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -27743,21 +27754,22 @@
       <c r="T19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U19" s="31">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+      <c r="U19" s="31"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="9"/>
+      <c r="Z19" s="31">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="AA19" t="str">
         <f t="shared" si="1"/>
-        <v>:\     : j :      /:18</v>
+        <v>:\     : j :      /:</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="2"/>
-        <v>':\     : j :      /:18',</v>
+        <v>':\     : j :      /:',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -27821,21 +27833,22 @@
       <c r="T20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U20" s="31">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
+      <c r="U20" s="31"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="9"/>
+      <c r="Z20" s="31">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="AA20" t="str">
         <f t="shared" si="1"/>
-        <v>::::::::::::::::::::19</v>
+        <v>::::::::::::::::::::</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="2"/>
-        <v>'::::::::::::::::::::19',</v>
+        <v>'::::::::::::::::::::',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -28101,13 +28114,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z20">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28120,7 +28138,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28197,6 +28215,10 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="5"/>
+      <c r="Z1" s="31">
+        <f>ROW()-1</f>
+        <v>0</v>
+      </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
         <v>:::::)  /:\  (::::::</v>
@@ -28272,12 +28294,16 @@
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="9"/>
+      <c r="Z2" s="31">
+        <f t="shared" ref="Z2:Z20" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
       <c r="AA2" t="str">
-        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+        <f t="shared" ref="AA2:AA25" si="1">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
         <v>:)       :        (:</v>
       </c>
       <c r="AB2" t="str">
-        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
+        <f t="shared" ref="AB2:AB25" si="2">"'"&amp;AA2&amp;"',"</f>
         <v>':)       :        (:',</v>
       </c>
     </row>
@@ -28347,12 +28373,16 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="9"/>
+      <c r="Z3" s="31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="AA3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:        :         :</v>
       </c>
       <c r="AB3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':        :         :',</v>
       </c>
     </row>
@@ -28422,12 +28452,16 @@
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="9"/>
+      <c r="Z4" s="31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="AA4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:       /:\        :</v>
       </c>
       <c r="AB4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':       /:\        :',</v>
       </c>
     </row>
@@ -28497,12 +28531,16 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="9"/>
+      <c r="Z5" s="31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="AA5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:     /::l::\      :</v>
       </c>
       <c r="AB5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':     /::l::\      :',</v>
       </c>
     </row>
@@ -28572,12 +28610,16 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="9"/>
+      <c r="Z6" s="31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="AA6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:     : `¬` :      :</v>
       </c>
       <c r="AB6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':     : `¬` :      :',</v>
       </c>
     </row>
@@ -28647,12 +28689,16 @@
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="9"/>
+      <c r="Z7" s="31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="AA7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:  B    `¬`     B  :</v>
       </c>
       <c r="AB7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':  B    `¬`     B  :',</v>
       </c>
     </row>
@@ -28722,12 +28768,16 @@
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="9"/>
+      <c r="Z8" s="31">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="AA8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:       `¬`        :</v>
       </c>
       <c r="AB8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':       `¬`        :',</v>
       </c>
     </row>
@@ -28797,12 +28847,16 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="9"/>
+      <c r="Z9" s="31">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="AA9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:  B    `¬`     B  :</v>
       </c>
       <c r="AB9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':  B    `¬`     B  :',</v>
       </c>
     </row>
@@ -28872,12 +28926,16 @@
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="9"/>
+      <c r="Z10" s="31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="AA10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:       `¬`        :</v>
       </c>
       <c r="AB10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':       `¬`        :',</v>
       </c>
     </row>
@@ -28947,12 +29005,16 @@
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="9"/>
+      <c r="Z11" s="31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="AA11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:  B    `¬`     B  :</v>
       </c>
       <c r="AB11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':  B    `¬`     B  :',</v>
       </c>
     </row>
@@ -29022,12 +29084,16 @@
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="9"/>
+      <c r="Z12" s="31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="AA12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:       `¬`        :</v>
       </c>
       <c r="AB12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':       `¬`        :',</v>
       </c>
     </row>
@@ -29097,12 +29163,16 @@
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="9"/>
+      <c r="Z13" s="31">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="AA13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:  B    `¬`     B  :</v>
       </c>
       <c r="AB13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':  B    `¬`     B  :',</v>
       </c>
     </row>
@@ -29172,12 +29242,16 @@
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="9"/>
+      <c r="Z14" s="31">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="AA14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:       `¬`        :</v>
       </c>
       <c r="AB14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':       `¬`        :',</v>
       </c>
     </row>
@@ -29247,12 +29321,16 @@
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="9"/>
+      <c r="Z15" s="31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="AA15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:       `¬`        :</v>
       </c>
       <c r="AB15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':       `¬`        :',</v>
       </c>
     </row>
@@ -29322,12 +29400,16 @@
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="9"/>
+      <c r="Z16" s="31">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="AA16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:   /\   ¬   /\    :</v>
       </c>
       <c r="AB16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':   /\   ¬   /\    :',</v>
       </c>
     </row>
@@ -29397,12 +29479,16 @@
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="9"/>
+      <c r="Z17" s="31">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="AA17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:   :    ¬    :    :</v>
       </c>
       <c r="AB17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':   :    ¬    :    :',</v>
       </c>
     </row>
@@ -29472,12 +29558,16 @@
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="9"/>
+      <c r="Z18" s="31">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="AA18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:   :         :    :</v>
       </c>
       <c r="AB18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':   :         :    :',</v>
       </c>
     </row>
@@ -29547,12 +29637,16 @@
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="9"/>
+      <c r="Z19" s="31">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="AA19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:\ /:    G    :\  /:</v>
       </c>
       <c r="AB19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':\ /:    G    :\  /:',</v>
       </c>
     </row>
@@ -29622,48 +29716,112 @@
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="9"/>
+      <c r="Z20" s="31">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="AA20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>::::::::::::::::::::</v>
       </c>
       <c r="AB20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'::::::::::::::::::::',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
+      <c r="A21" s="31">
+        <f>COLUMN()-1</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="31">
+        <f t="shared" ref="B21:T21" si="3">COLUMN()-1</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="31">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="31">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E21" s="31">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F21" s="31">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H21" s="31">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I21" s="31">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J21" s="31">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K21" s="31">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L21" s="31">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="M21" s="31">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N21" s="31">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="O21" s="31">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="P21" s="31">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="Q21" s="31">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="R21" s="31">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="S21" s="31">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="T21" s="31">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="9"/>
       <c r="AA21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>012345678910111213141516171819</v>
       </c>
       <c r="AB21" t="str">
-        <f t="shared" si="1"/>
-        <v>'',</v>
+        <f t="shared" si="2"/>
+        <v>'012345678910111213141516171819',</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -29693,11 +29851,11 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="9"/>
       <c r="AA22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
@@ -29728,11 +29886,11 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="9"/>
       <c r="AA23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
@@ -29763,11 +29921,11 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="9"/>
       <c r="AA24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
@@ -29798,11 +29956,11 @@
       <c r="X25" s="12"/>
       <c r="Y25" s="13"/>
       <c r="AA25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
@@ -29833,13 +29991,33 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="9" priority="2">
+  <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:Y20 A22:Z25 U21:Z21">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:T21">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:T21">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z20">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z20">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31867,12 +32045,12 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33600,12 +33778,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="58" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35335,22 +35513,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y13 A18:Y25 A14:C17 G14:Y17">
-    <cfRule type="expression" dxfId="57" priority="4">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z13 A18:Z25 A14:C17 G14:Z17">
-    <cfRule type="cellIs" dxfId="56" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="expression" dxfId="55" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37078,12 +37256,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38811,12 +38989,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="51" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38830,7 +39008,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38972,7 +39150,7 @@
         <v>6</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>2</v>
@@ -38984,11 +39162,11 @@
       <c r="Y2" s="9"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>:,D     (:)       ?:</v>
+        <v>:,D     (:)        :</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>':,D     (:)       ?:',</v>
+        <v>':,D     (:)        :',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -40238,7 +40416,7 @@
         <v>6</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q19" s="14" t="s">
         <v>2</v>
@@ -40259,11 +40437,11 @@
       <c r="Y19" s="9"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>:j`:   :\ /:   ?:`j:</v>
+        <v>:j`:   :\ /:    :`j:</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>':j`:   :\ /:   ?:`j:',</v>
+        <v>':j`:   :\ /:    :`j:',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -40636,12 +40814,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y26">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42369,22 +42547,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="44" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44112,12 +44290,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder 20170212.xlsx
+++ b/game_template/model/data/floor builder 20170212.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8646" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8651" uniqueCount="247">
   <si>
     <t>width</t>
   </si>
@@ -492,21 +492,6 @@
         <family val="3"/>
       </rPr>
       <t>'Q'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">BOSS_DOOR = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008080"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>'d'</t>
     </r>
   </si>
   <si>
@@ -1021,21 +1006,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">START_POSITON = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008080"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>'='</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">SWITCH = </t>
     </r>
     <r>
@@ -1412,21 +1382,6 @@
         <family val="3"/>
       </rPr>
       <t>'¬'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TILE1 = '`</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008080"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>'</t>
     </r>
   </si>
   <si>
@@ -1942,6 +1897,216 @@
   <si>
     <t>F</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BOSS_DOOR = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'F'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BOSS_DOOR_OPEN = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'f'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DOOR_OPEN = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'d'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REPLENISH = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"H"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BOSS = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'4'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BOSS_KEY = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'K'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PLAYER_ARMOUR = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'p'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PLAYER_GOLD = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'g'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PLAYER_SPIKE = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'A'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NPC1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Y'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NPC2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'y'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">START_POSITION = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'='</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TILE1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'`'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WALL3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'e'</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2210,7 +2375,14 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="64">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3044,10 +3216,10 @@
         <v/>
       </c>
       <c r="AA1" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AF1">
         <f>LEN(AB1)</f>
@@ -3156,10 +3328,10 @@
         <v/>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AB2" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF20" si="3">LEN(AB2)</f>
@@ -3268,10 +3440,10 @@
         <v/>
       </c>
       <c r="AA3" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AB3" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF3">
         <f t="shared" si="3"/>
@@ -3380,10 +3552,10 @@
         <v/>
       </c>
       <c r="AA4" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AB4" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AF4">
         <f t="shared" si="3"/>
@@ -3492,10 +3664,10 @@
         <v/>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AB5" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AF5">
         <f t="shared" si="3"/>
@@ -3604,10 +3776,10 @@
         <v/>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AB6" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AF6">
         <f t="shared" si="3"/>
@@ -3716,10 +3888,10 @@
         <v/>
       </c>
       <c r="AA7" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AB7" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AF7">
         <f t="shared" si="3"/>
@@ -3828,10 +4000,10 @@
         <v/>
       </c>
       <c r="AA8" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AB8" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AF8">
         <f t="shared" si="3"/>
@@ -3940,10 +4112,10 @@
         <v/>
       </c>
       <c r="AA9" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AB9" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF9">
         <f t="shared" si="3"/>
@@ -4052,10 +4224,10 @@
         <v/>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AB10" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AF10">
         <f t="shared" si="3"/>
@@ -4164,10 +4336,10 @@
         <v/>
       </c>
       <c r="AA11" s="15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AB11" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF11">
         <f t="shared" si="3"/>
@@ -4276,10 +4448,10 @@
         <v/>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AB12" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AF12">
         <f t="shared" si="3"/>
@@ -4388,10 +4560,10 @@
         <v/>
       </c>
       <c r="AA13" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AB13" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AF13">
         <f t="shared" si="3"/>
@@ -4500,10 +4672,10 @@
         <v/>
       </c>
       <c r="AA14" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AB14" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AF14">
         <f t="shared" si="3"/>
@@ -4612,10 +4784,10 @@
         <v/>
       </c>
       <c r="AA15" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AB15" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AF15">
         <f t="shared" si="3"/>
@@ -4724,10 +4896,10 @@
         <v/>
       </c>
       <c r="AA16" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AB16" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AF16">
         <f t="shared" si="3"/>
@@ -4836,10 +5008,10 @@
         <v/>
       </c>
       <c r="AA17" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AB17" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF17">
         <f t="shared" si="3"/>
@@ -4948,10 +5120,10 @@
         <v/>
       </c>
       <c r="AA18" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AB18" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AF18">
         <f t="shared" si="3"/>
@@ -5060,10 +5232,10 @@
         <v/>
       </c>
       <c r="AA19" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AB19" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AF19">
         <f t="shared" si="3"/>
@@ -5172,10 +5344,10 @@
         <v/>
       </c>
       <c r="AA20" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AB20" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AF20">
         <f t="shared" si="3"/>
@@ -5345,12 +5517,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="62" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7078,22 +7250,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="41" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8821,22 +8993,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9340,7 +9512,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>2</v>
@@ -9415,7 +9587,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>2</v>
@@ -9490,7 +9662,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>6</v>
@@ -9565,7 +9737,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>6</v>
@@ -9640,7 +9812,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>6</v>
@@ -10564,22 +10736,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11282,16 +11454,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>2</v>
@@ -11312,25 +11484,25 @@
         <v>6</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S10" s="14" t="s">
         <v>6</v>
@@ -11354,19 +11526,19 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>2</v>
@@ -11387,25 +11559,25 @@
         <v>6</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S11" s="14" t="s">
         <v>6</v>
@@ -12305,12 +12477,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13165,7 +13337,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>14</v>
@@ -13240,10 +13412,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>7</v>
@@ -13315,7 +13487,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -14038,12 +14210,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15771,12 +15943,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16454,13 +16626,13 @@
         <v>2</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="T9" s="7" t="s">
         <v>2</v>
@@ -16490,13 +16662,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>6</v>
@@ -16529,13 +16701,13 @@
         <v>2</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="T10" s="7" t="s">
         <v>2</v>
@@ -16568,7 +16740,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>6</v>
@@ -16604,10 +16776,10 @@
         <v>8</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S11" s="14" t="s">
         <v>25</v>
@@ -16679,13 +16851,13 @@
         <v>2</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="T12" s="7" t="s">
         <v>2</v>
@@ -17183,7 +17355,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>2</v>
@@ -17507,12 +17679,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17941,13 +18113,13 @@
         <v>13</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>14</v>
@@ -18016,13 +18188,13 @@
         <v>6</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>6</v>
@@ -18091,13 +18263,13 @@
         <v>6</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>6</v>
@@ -18142,10 +18314,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>6</v>
@@ -18193,10 +18365,10 @@
         <v>6</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
@@ -18220,7 +18392,7 @@
         <v>110</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>6</v>
@@ -18268,7 +18440,7 @@
         <v>6</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="T10" s="7" t="s">
         <v>23</v>
@@ -18292,10 +18464,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>6</v>
@@ -18343,10 +18515,10 @@
         <v>6</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
@@ -18466,13 +18638,13 @@
         <v>6</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>6</v>
@@ -18541,13 +18713,13 @@
         <v>6</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>7</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>6</v>
@@ -18616,13 +18788,13 @@
         <v>11</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>12</v>
@@ -19240,12 +19412,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19590,7 +19762,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>16</v>
@@ -19665,10 +19837,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>2</v>
@@ -20574,7 +20746,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>6</v>
@@ -20646,13 +20818,13 @@
         <v>6</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>6</v>
@@ -20718,19 +20890,19 @@
         <v>6</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>18</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M20" s="14" t="s">
         <v>6</v>
@@ -20973,12 +21145,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21536,7 +21708,7 @@
         <v>110</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>2</v>
@@ -21608,10 +21780,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>2</v>
@@ -21683,10 +21855,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>2</v>
@@ -21728,13 +21900,13 @@
         <v>2</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="T10" s="14" t="s">
         <v>2</v>
@@ -21779,7 +21951,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>2</v>
@@ -21803,10 +21975,10 @@
         <v>31</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S11" s="14" t="s">
         <v>25</v>
@@ -21854,7 +22026,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>9</v>
@@ -21881,10 +22053,10 @@
         <v>31</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="T12" s="14" t="s">
         <v>2</v>
@@ -22706,12 +22878,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24439,12 +24611,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="60" priority="2">
+    <cfRule type="expression" dxfId="61" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25148,10 +25320,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>2</v>
@@ -25223,13 +25395,13 @@
         <v>22</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E11" s="14">
         <v>8</v>
@@ -25274,7 +25446,7 @@
         <v>8</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="T11" s="14" t="s">
         <v>23</v>
@@ -25298,10 +25470,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>2</v>
@@ -26231,22 +26403,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26260,7 +26432,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U20"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26376,13 +26548,13 @@
         <v>2</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>2</v>
@@ -26422,11 +26594,11 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="1">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>:)     : j :      (:</v>
+        <v>:)     :`j`:      (:</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="2">"'"&amp;AA2&amp;"',"</f>
-        <v>':)     : j :      (:',</v>
+        <v>':)     :`j`:      (:',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -26455,13 +26627,13 @@
         <v>2</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>2</v>
@@ -26501,11 +26673,11 @@
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="1"/>
-        <v>:      :   :       :</v>
+        <v>:      :```:       :</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="2"/>
-        <v>':      :   :       :',</v>
+        <v>':      :```:       :',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -26612,14 +26784,14 @@
       <c r="H5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>6</v>
+      <c r="I5" s="14">
+        <v>8</v>
+      </c>
+      <c r="J5" s="14">
+        <v>8</v>
+      </c>
+      <c r="K5" s="14">
+        <v>8</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>6</v>
@@ -26659,11 +26831,11 @@
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="1"/>
-        <v>:                  :</v>
+        <v>:       888        :</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="2"/>
-        <v>':                  :',</v>
+        <v>':       888        :',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -26841,13 +27013,13 @@
         <v>2</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>6</v>
@@ -26908,31 +27080,31 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>6</v>
@@ -26987,34 +27159,34 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>6</v>
@@ -27066,58 +27238,58 @@
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>23</v>
@@ -27145,34 +27317,34 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>6</v>
@@ -27224,31 +27396,31 @@
         <v>2</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>6</v>
@@ -27315,13 +27487,13 @@
         <v>2</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>6</v>
@@ -27481,14 +27653,14 @@
       <c r="H16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>6</v>
+      <c r="I16" s="14">
+        <v>8</v>
+      </c>
+      <c r="J16" s="14">
+        <v>8</v>
+      </c>
+      <c r="K16" s="14">
+        <v>8</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>6</v>
@@ -27528,11 +27700,11 @@
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="1"/>
-        <v>:x                 :</v>
+        <v>:x      888        :</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="2"/>
-        <v>':x                 :',</v>
+        <v>':x      888        :',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -27640,13 +27812,13 @@
         <v>2</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>2</v>
@@ -27686,11 +27858,11 @@
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="1"/>
-        <v>:      :   :       :</v>
+        <v>:      :```:       :</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="2"/>
-        <v>':      :   :       :',</v>
+        <v>':      :```:       :',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -27719,13 +27891,13 @@
         <v>2</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>2</v>
@@ -27765,11 +27937,11 @@
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="1"/>
-        <v>:\     : j :      /:</v>
+        <v>:\     :```:      /:</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="2"/>
-        <v>':\     : j :      /:',</v>
+        <v>':\     :```:      /:',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -28114,17 +28286,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28570,13 +28742,13 @@
         <v>6</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>6</v>
@@ -28649,13 +28821,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>6</v>
@@ -28728,13 +28900,13 @@
         <v>6</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>6</v>
@@ -28807,13 +28979,13 @@
         <v>6</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>6</v>
@@ -28886,13 +29058,13 @@
         <v>6</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>6</v>
@@ -28965,13 +29137,13 @@
         <v>6</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>6</v>
@@ -29044,13 +29216,13 @@
         <v>6</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>6</v>
@@ -29123,13 +29295,13 @@
         <v>6</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>6</v>
@@ -29202,13 +29374,13 @@
         <v>6</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>6</v>
@@ -29281,13 +29453,13 @@
         <v>6</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>6</v>
@@ -29363,7 +29535,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>6</v>
@@ -29442,7 +29614,7 @@
         <v>6</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>6</v>
@@ -29992,32 +30164,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Y20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30028,11 +30200,11 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30116,15 +30288,15 @@
         <v>BEACH ='b'</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I65" si="2">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
-        <v>TILE1</v>
+        <f t="shared" ref="I3:I66" si="2">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
+        <v>BOMB</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J65" si="3">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
-        <v>`</v>
+        <f t="shared" ref="J3:J66" si="3">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
+        <v>q</v>
       </c>
       <c r="K3" s="20" t="b">
         <f t="shared" ref="K3:K65" si="4">SUMPRODUCT(--(EXACT(J:J,J3)))&gt;1</f>
@@ -30147,15 +30319,15 @@
         <v>BOMB ='q'</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
-        <v>TILE2</v>
+        <v>BOMB_LIT</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="3"/>
-        <v>¬</v>
+        <v>Q</v>
       </c>
       <c r="K4" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30178,15 +30350,15 @@
         <v>BOMB_LIT ='Q'</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
-        <v>TILE3</v>
+        <v>BOSS_DOOR</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
-        <v>.</v>
+        <v>F</v>
       </c>
       <c r="K5" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30209,15 +30381,15 @@
         <v>BOSS_DOOR ='d'</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
-        <v>TILE4</v>
+        <v>BOSS_DOOR_OPEN</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v>~</v>
+        <v>f</v>
       </c>
       <c r="K6" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30240,15 +30412,15 @@
         <v>BRAZIER ='B'</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v>BOMB</v>
+        <v>BRAZIER</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="3"/>
-        <v>q</v>
+        <v>B</v>
       </c>
       <c r="K7" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30271,15 +30443,15 @@
         <v>CLOUD ='.'</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v>BOMB_LIT</v>
+        <v>DECORATION1</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="3"/>
-        <v>Q</v>
+        <v>z</v>
       </c>
       <c r="K8" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30302,15 +30474,15 @@
         <v>DECORATION1 ='z'</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
-        <v>BOSS_DOOR</v>
+        <v>DECORATION2</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="3"/>
-        <v>d</v>
+        <v>Z</v>
       </c>
       <c r="K9" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30333,15 +30505,15 @@
         <v>DECORATION2 ='Z'</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
-        <v>BRAZIER</v>
+        <v>DOOR</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="K10" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30364,15 +30536,15 @@
         <v>DOOR ='D'</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>138</v>
+        <v>235</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
-        <v>DECORATION1</v>
+        <v>DOOR_OPEN</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="3"/>
-        <v>z</v>
+        <v>d</v>
       </c>
       <c r="K11" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30395,15 +30567,15 @@
         <v>DOT1 ='!'</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v>DECORATION2</v>
+        <v>DOT1</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="3"/>
-        <v>Z</v>
+        <v>!</v>
       </c>
       <c r="K12" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30426,15 +30598,15 @@
         <v>DOT2 ='£'</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v>DOOR</v>
+        <v>DOT2</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
+        <v>£</v>
       </c>
       <c r="K13" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30457,15 +30629,15 @@
         <v>DOWN ='-'</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="2"/>
-        <v>DOT1</v>
+        <v>DOWN</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="3"/>
-        <v>!</v>
+        <v>-</v>
       </c>
       <c r="K14" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30488,15 +30660,15 @@
         <v>EAST ='E'</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="2"/>
-        <v>DOT2</v>
+        <v>EAST</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="3"/>
-        <v>£</v>
+        <v>E</v>
       </c>
       <c r="K15" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30519,15 +30691,15 @@
         <v>EMPTY =' '</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="2"/>
-        <v>DOWN</v>
+        <v>EMPTY</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K16" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30550,15 +30722,15 @@
         <v>EXIT_KEY ='%'</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="2"/>
-        <v>EAST</v>
+        <v>EXIT_KEY</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="3"/>
-        <v>E</v>
+        <v>%</v>
       </c>
       <c r="K17" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30581,15 +30753,15 @@
         <v>HEART ='HP'</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="2"/>
-        <v>EMPTY</v>
+        <v>HEART</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v>HP</v>
       </c>
       <c r="K18" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30612,15 +30784,15 @@
         <v>KEY ='?'</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="2"/>
-        <v>EXIT_KEY</v>
+        <v>REPLENISH</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="3"/>
-        <v>%</v>
+        <v>"H"</v>
       </c>
       <c r="K19" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30647,11 +30819,11 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" si="2"/>
-        <v>HEART</v>
+        <v>KEY</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="3"/>
-        <v>HP</v>
+        <v>?</v>
       </c>
       <c r="K20" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30678,11 +30850,11 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="2"/>
-        <v>KEY</v>
+        <v>MAP</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="3"/>
-        <v>?</v>
+        <v>M</v>
       </c>
       <c r="K21" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30709,11 +30881,11 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="2"/>
-        <v>MAP</v>
+        <v>MONSTER1</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>1</v>
       </c>
       <c r="K22" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30740,11 +30912,11 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="2"/>
-        <v>MONSTER1</v>
+        <v>MONSTER2</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30771,11 +30943,11 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="2"/>
-        <v>MONSTER2</v>
+        <v>MONSTER3</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30798,15 +30970,15 @@
         <v>NORTH ='N'</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="2"/>
-        <v>MONSTER3</v>
+        <v>BOSS</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30829,15 +31001,15 @@
         <v>PLAYER ='P'</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="2"/>
-        <v>NEXT_LEVEL</v>
+        <v>BOSS_KEY</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>K</v>
       </c>
       <c r="K26" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30860,15 +31032,15 @@
         <v>PREVIOUS_LEVEL ='l'</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="2"/>
-        <v>NORTH</v>
+        <v>NEXT_LEVEL</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="K27" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30891,15 +31063,15 @@
         <v>RED_POTION ='R'</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="2"/>
-        <v>PLAYER</v>
+        <v>NORTH</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="3"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="K28" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30922,15 +31094,15 @@
         <v>RUNE ='u'</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="2"/>
-        <v>PREVIOUS_LEVEL</v>
+        <v>PLAYER</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="3"/>
-        <v>l</v>
+        <v>P</v>
       </c>
       <c r="K29" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30953,15 +31125,15 @@
         <v>RUNE1 ='R1'</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="2"/>
-        <v>RED_POTION</v>
+        <v>PLAYER_ARMOUR</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="3"/>
-        <v>R</v>
+        <v>p</v>
       </c>
       <c r="K30" s="20" t="b">
         <f t="shared" si="4"/>
@@ -30984,15 +31156,15 @@
         <v>RUNE2 ='R2'</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="2"/>
-        <v>RUNE</v>
+        <v>PLAYER_GOLD</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="3"/>
-        <v>u</v>
+        <v>g</v>
       </c>
       <c r="K31" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31015,15 +31187,15 @@
         <v>RUNE3 ='R3'</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="2"/>
-        <v>RUNE1</v>
+        <v>PLAYER_SPIKE</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="3"/>
-        <v>R1</v>
+        <v>A</v>
       </c>
       <c r="K32" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31046,15 +31218,15 @@
         <v>RUNE4 ='R4'</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="2"/>
-        <v>RUNE2</v>
+        <v>NPC1</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="3"/>
-        <v>R2</v>
+        <v>Y</v>
       </c>
       <c r="K33" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31077,15 +31249,15 @@
         <v>RUNE5 ='R5'</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="2"/>
-        <v>RUNE3</v>
+        <v>NPC2</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="3"/>
-        <v>R3</v>
+        <v>y</v>
       </c>
       <c r="K34" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31108,15 +31280,15 @@
         <v>SAFETY ='8'</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="2"/>
-        <v>RUNE4</v>
+        <v>PREVIOUS_LEVEL</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="3"/>
-        <v>R4</v>
+        <v>l</v>
       </c>
       <c r="K35" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31139,15 +31311,15 @@
         <v>SECRET_TREASURE ='J'</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="2"/>
-        <v>RUNE5</v>
+        <v>RED_POTION</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="3"/>
-        <v>R5</v>
+        <v>R</v>
       </c>
       <c r="K36" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31170,15 +31342,15 @@
         <v>SECRET_WALL =';'</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="2"/>
-        <v>SAFETY</v>
+        <v>RUNE</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>u</v>
       </c>
       <c r="K37" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31201,15 +31373,15 @@
         <v>SHIELD ='O'</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="2"/>
-        <v>SECRET_TREASURE</v>
+        <v>RUNE1</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="3"/>
-        <v>J</v>
+        <v>R1</v>
       </c>
       <c r="K38" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31232,15 +31404,15 @@
         <v>SHOP ='s'</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="2"/>
-        <v>SECRET_WALL</v>
+        <v>RUNE2</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="3"/>
-        <v>;</v>
+        <v>R2</v>
       </c>
       <c r="K39" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31263,15 +31435,15 @@
         <v>SHOP_KEEPER ='SHOP'</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="2"/>
-        <v>SHIELD</v>
+        <v>RUNE3</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="3"/>
-        <v>O</v>
+        <v>R3</v>
       </c>
       <c r="K40" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31294,15 +31466,15 @@
         <v>SKY ='~'</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="2"/>
-        <v>SHOP</v>
+        <v>RUNE4</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
+        <v>R4</v>
       </c>
       <c r="K41" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31325,15 +31497,15 @@
         <v>SOUTH ='S'</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="2"/>
-        <v>SHOP_KEEPER</v>
+        <v>RUNE5</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="3"/>
-        <v>SHOP</v>
+        <v>R5</v>
       </c>
       <c r="K42" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31356,15 +31528,15 @@
         <v>START_POSITON ='='</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="2"/>
-        <v>SOUTH</v>
+        <v>SAFETY</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>8</v>
       </c>
       <c r="K43" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31387,15 +31559,15 @@
         <v>SWITCH =','</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="2"/>
-        <v>START_POSITON</v>
+        <v>SECRET_TREASURE</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="3"/>
-        <v>=</v>
+        <v>J</v>
       </c>
       <c r="K44" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31418,15 +31590,15 @@
         <v>SWITCH_LIT ='&lt;'</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="2"/>
-        <v>SWITCH</v>
+        <v>SECRET_WALL</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="3"/>
-        <v>,</v>
+        <v>;</v>
       </c>
       <c r="K45" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31449,15 +31621,15 @@
         <v>SWITCH_TILE ='_'</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="2"/>
-        <v>SWITCH_LIT</v>
+        <v>SHIELD</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;</v>
+        <v>O</v>
       </c>
       <c r="K46" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31480,15 +31652,15 @@
         <v>TRAP1 ='^'</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="2"/>
-        <v>SWITCH_TILE</v>
+        <v>SHOP</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="3"/>
-        <v>_</v>
+        <v>s</v>
       </c>
       <c r="K47" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31511,15 +31683,15 @@
         <v>TRAP2 ='&amp;'</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="2"/>
-        <v>TRAP1</v>
+        <v>SHOP_KEEPER</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="3"/>
-        <v>^</v>
+        <v>SHOP</v>
       </c>
       <c r="K48" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31542,15 +31714,15 @@
         <v>TRAP3 ='['</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="2"/>
-        <v>TRAP2</v>
+        <v>SOUTH</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="3"/>
-        <v>&amp;</v>
+        <v>S</v>
       </c>
       <c r="K49" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31573,15 +31745,15 @@
         <v>TREASURE ='*'</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="2"/>
-        <v>TRAP3</v>
+        <v>START_POSITION</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="3"/>
-        <v>[</v>
+        <v>=</v>
       </c>
       <c r="K50" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31604,15 +31776,15 @@
         <v>TREASURE_CHEST ='j'</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="2"/>
-        <v>TREASURE</v>
+        <v>SWITCH</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="3"/>
-        <v>*</v>
+        <v>,</v>
       </c>
       <c r="K51" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31635,15 +31807,15 @@
         <v>TREASURE10 ='x'</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="2"/>
-        <v>TREASURE_CHEST</v>
+        <v>SWITCH_LIT</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>&lt;</v>
       </c>
       <c r="K52" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31666,15 +31838,15 @@
         <v>TREASURE25 ='X'</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="2"/>
-        <v>TREASURE10</v>
+        <v>SWITCH_TILE</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="3"/>
-        <v>x</v>
+        <v>_</v>
       </c>
       <c r="K53" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31697,15 +31869,15 @@
         <v>TREE ='T'</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="2"/>
-        <v>TREASURE25</v>
+        <v>TILE1</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="3"/>
-        <v>X</v>
+        <v>`</v>
       </c>
       <c r="K54" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31728,15 +31900,15 @@
         <v>TROPHY ='G'</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="2"/>
-        <v>TREE</v>
+        <v>TILE2</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="3"/>
-        <v>T</v>
+        <v>¬</v>
       </c>
       <c r="K55" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31759,15 +31931,15 @@
         <v>UP ='+'</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="2"/>
-        <v>TROPHY</v>
+        <v>TILE3</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="3"/>
-        <v>G</v>
+        <v>.</v>
       </c>
       <c r="K56" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31790,15 +31962,15 @@
         <v>WALL =':'</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="2"/>
-        <v>UP</v>
+        <v>TILE4</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>~</v>
       </c>
       <c r="K57" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31821,15 +31993,15 @@
         <v>WALL_BL ='('</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="2"/>
-        <v>WALL</v>
+        <v>TRAP1</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="3"/>
-        <v>:</v>
+        <v>^</v>
       </c>
       <c r="K58" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31852,15 +32024,15 @@
         <v>WALL_BR =')'</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="2"/>
-        <v>WALL_BL</v>
+        <v>TRAP2</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="3"/>
-        <v>(</v>
+        <v>&amp;</v>
       </c>
       <c r="K59" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31883,15 +32055,15 @@
         <v>WALL_TL ='/'</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="2"/>
-        <v>WALL_BR</v>
+        <v>TRAP3</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="3"/>
-        <v>)</v>
+        <v>[</v>
       </c>
       <c r="K60" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31914,15 +32086,15 @@
         <v>WALL_TR ='\\'</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="2"/>
-        <v>WALL_TL</v>
+        <v>TREASURE</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="3"/>
-        <v>/</v>
+        <v>*</v>
       </c>
       <c r="K61" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31945,15 +32117,15 @@
         <v>WATER ='w'</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="2"/>
-        <v>WALL_TR</v>
+        <v>TREASURE_CHEST</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="3"/>
-        <v>\\</v>
+        <v>j</v>
       </c>
       <c r="K62" s="20" t="b">
         <f t="shared" si="4"/>
@@ -31976,15 +32148,15 @@
         <v>WEAPON ='|'</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="2"/>
-        <v>WALL2</v>
+        <v>TREASURE10</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="3"/>
-        <v>w</v>
+        <v>x</v>
       </c>
       <c r="K63" s="20" t="b">
         <f t="shared" si="4"/>
@@ -32007,15 +32179,15 @@
         <v>WEST ='W'</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="2"/>
-        <v>WEAPON</v>
+        <v>TREASURE25</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="3"/>
-        <v>|</v>
+        <v>X</v>
       </c>
       <c r="K64" s="20" t="b">
         <f t="shared" si="4"/>
@@ -32024,18 +32196,205 @@
     </row>
     <row r="65" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H65" s="28" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="2"/>
-        <v>WEST</v>
+        <v>TREE</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="K65" s="20" t="b">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H66" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="2"/>
+        <v>TROPHY</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="3"/>
+        <v>G</v>
+      </c>
+      <c r="K66" s="20" t="b">
+        <f t="shared" ref="K66:K76" si="6">SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H67" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I76" si="7">TRIM(MID($H67,1,FIND("=",$H67)-1))</f>
+        <v>UP</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J76" si="8">SUBSTITUTE(TRIM(MID($H67,FIND("=",$H67)+1,200)),"'","")</f>
+        <v>+</v>
+      </c>
+      <c r="K67" s="20" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H68" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="7"/>
+        <v>WALL</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="8"/>
+        <v>:</v>
+      </c>
+      <c r="K68" s="20" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H69" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="7"/>
+        <v>WALL_BL</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="8"/>
+        <v>(</v>
+      </c>
+      <c r="K69" s="20" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H70" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="7"/>
+        <v>WALL_BR</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="8"/>
+        <v>)</v>
+      </c>
+      <c r="K70" s="20" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H71" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="7"/>
+        <v>WALL_TL</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="8"/>
+        <v>/</v>
+      </c>
+      <c r="K71" s="20" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H72" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="7"/>
+        <v>WALL_TR</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="8"/>
+        <v>\\</v>
+      </c>
+      <c r="K72" s="20" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H73" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="7"/>
+        <v>WALL2</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="8"/>
+        <v>w</v>
+      </c>
+      <c r="K73" s="20" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H74" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="7"/>
+        <v>WALL3</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="8"/>
+        <v>e</v>
+      </c>
+      <c r="K74" s="20" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H75" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="7"/>
+        <v>WEAPON</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="8"/>
+        <v>|</v>
+      </c>
+      <c r="K75" s="20" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H76" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="7"/>
+        <v>WEST</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="8"/>
+        <v>W</v>
+      </c>
+      <c r="K76" s="20" t="b">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -32045,12 +32404,12 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="K2:K76">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33778,12 +34137,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="59" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33912,7 +34271,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>6</v>
@@ -33987,7 +34346,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>6</v>
@@ -34062,7 +34421,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>6</v>
@@ -34137,7 +34496,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>6</v>
@@ -34212,7 +34571,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>6</v>
@@ -34287,7 +34646,7 @@
         <v>105</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>6</v>
@@ -34338,31 +34697,31 @@
         <v>22</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>6</v>
@@ -34437,7 +34796,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>6</v>
@@ -34509,13 +34868,13 @@
         <v>6</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>6</v>
@@ -34584,37 +34943,37 @@
         <v>6</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="T11" s="14" t="s">
         <v>23</v>
@@ -34659,19 +35018,19 @@
         <v>6</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N12" s="14" t="s">
         <v>105</v>
@@ -34748,7 +35107,7 @@
         <v>6</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>6</v>
@@ -34823,7 +35182,7 @@
         <v>6</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N14" s="14" t="s">
         <v>6</v>
@@ -34898,7 +35257,7 @@
         <v>6</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N15" s="14" t="s">
         <v>6</v>
@@ -34949,7 +35308,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>9</v>
@@ -34973,7 +35332,7 @@
         <v>6</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N16" s="14" t="s">
         <v>6</v>
@@ -35024,7 +35383,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F17" s="14">
         <v>8</v>
@@ -35048,7 +35407,7 @@
         <v>6</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>10</v>
@@ -35099,31 +35458,31 @@
         <v>6</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N18" s="14" t="s">
         <v>6</v>
@@ -35189,7 +35548,7 @@
         <v>6</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>6</v>
@@ -35513,22 +35872,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y13 A18:Y25 A14:C17 G14:Y17">
-    <cfRule type="expression" dxfId="56" priority="4">
+    <cfRule type="expression" dxfId="57" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z13 A18:Z25 A14:C17 G14:Z17">
-    <cfRule type="cellIs" dxfId="55" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36257,7 +36616,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>6</v>
@@ -36329,13 +36688,13 @@
         <v>6</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>6</v>
@@ -36407,7 +36766,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>6</v>
@@ -37256,12 +37615,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="53" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37390,7 +37749,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>2</v>
@@ -37465,7 +37824,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>2</v>
@@ -38089,7 +38448,7 @@
         <v>15</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S11" s="14" t="s">
         <v>8</v>
@@ -38140,7 +38499,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>2</v>
@@ -38590,7 +38949,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>2</v>
@@ -38989,12 +39348,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="51" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39699,7 +40058,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>7</v>
@@ -40302,7 +40661,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>2</v>
@@ -40347,7 +40706,7 @@
         <v>2</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S18" s="14" t="s">
         <v>2</v>
@@ -40377,7 +40736,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>2</v>
@@ -40422,7 +40781,7 @@
         <v>2</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S19" s="14" t="s">
         <v>25</v>
@@ -40814,12 +41173,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y26">
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41533,10 +41892,10 @@
         <v>6</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>2</v>
@@ -41608,10 +41967,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>7</v>
@@ -41683,10 +42042,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>2</v>
@@ -42547,22 +42906,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="46" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42670,7 +43029,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>6</v>
@@ -42742,10 +43101,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>6</v>
@@ -43915,10 +44274,10 @@
         <v>6</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="T18" s="14" t="s">
         <v>2</v>
@@ -43990,7 +44349,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S19" s="14" t="s">
         <v>5</v>
@@ -44290,12 +44649,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder 20170212.xlsx
+++ b/game_template/model/data/floor builder 20170212.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="11" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="11" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <sheet name="Tiles" sheetId="56" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">Tiles!$C$1:$C$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">Tiles!$C$1:$C$65</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8651" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8682" uniqueCount="273">
   <si>
     <t>width</t>
   </si>
@@ -147,195 +147,6 @@
     <t>w</t>
   </si>
   <si>
-    <t xml:space="preserve">BANG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEACH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOSS_DOOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAZIER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DECORATION1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DECORATION2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPTY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">START_POSITON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEXT_LEVEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREVIOUS_LEVEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXIT_KEY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TROPHY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAFETY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SECRET_WALL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHOP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLOUD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWITCH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWITCH_LIT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWITCH_TILE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SECRET_TREASURE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAP1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAP2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAP3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREASURE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREASURE10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREASURE25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREASURE_CHEST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WALL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WALL_TL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WALL_TR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WALL_BL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WALL_BR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WATER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEAPON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHIELD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMB_LIT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONSTER1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONSTER2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONSTER3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAYER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RED_POTION </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOT1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOT2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEART </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHOP_KEEPER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUNE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUNE1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUNE2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUNE3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUNE4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUNE5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORTH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOUTH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOWN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEST </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -343,9 +154,6 @@
   </si>
   <si>
     <t>Dupe?</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
   <si>
     <t>[</t>
@@ -2107,6 +1915,276 @@
       <t>'e'</t>
     </r>
   </si>
+  <si>
+    <t>BANG</t>
+  </si>
+  <si>
+    <t>BOMB</t>
+  </si>
+  <si>
+    <t>BOMB_LIT</t>
+  </si>
+  <si>
+    <t>BOSS_DOOR</t>
+  </si>
+  <si>
+    <t>BOSS_DOOR_OPEN</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>BRAZIER</t>
+  </si>
+  <si>
+    <t>DECORATION1</t>
+  </si>
+  <si>
+    <t>DECORATION2</t>
+  </si>
+  <si>
+    <t>DOOR</t>
+  </si>
+  <si>
+    <t>DOOR_OPEN</t>
+  </si>
+  <si>
+    <t>DOT1</t>
+  </si>
+  <si>
+    <t>DOT2</t>
+  </si>
+  <si>
+    <t>DOWN</t>
+  </si>
+  <si>
+    <t>EAST</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>EXIT_KEY</t>
+  </si>
+  <si>
+    <t>HEART</t>
+  </si>
+  <si>
+    <t>REPLENISH</t>
+  </si>
+  <si>
+    <t>"H"</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>MONSTER1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>MONSTER2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>MONSTER3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>BOSS</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>BOSS_KEY</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>NEXT_LEVEL</t>
+  </si>
+  <si>
+    <t>NORTH</t>
+  </si>
+  <si>
+    <t>PLAYER</t>
+  </si>
+  <si>
+    <t>PLAYER_ARMOUR</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>PLAYER_GOLD</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>PLAYER_SPIKE</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>NPC1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>NPC2</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>PREVIOUS_LEVEL</t>
+  </si>
+  <si>
+    <t>RED_POTION</t>
+  </si>
+  <si>
+    <t>RUNE</t>
+  </si>
+  <si>
+    <t>RUNE1</t>
+  </si>
+  <si>
+    <t>RUNE2</t>
+  </si>
+  <si>
+    <t>RUNE3</t>
+  </si>
+  <si>
+    <t>RUNE4</t>
+  </si>
+  <si>
+    <t>RUNE5</t>
+  </si>
+  <si>
+    <t>SAFETY</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>SECRET_TREASURE</t>
+  </si>
+  <si>
+    <t>SECRET_WALL</t>
+  </si>
+  <si>
+    <t>SHIELD</t>
+  </si>
+  <si>
+    <t>SHOP_KEEPER</t>
+  </si>
+  <si>
+    <t>SOUTH</t>
+  </si>
+  <si>
+    <t>START_POSITION</t>
+  </si>
+  <si>
+    <t>SWITCH</t>
+  </si>
+  <si>
+    <t>SWITCH_LIT</t>
+  </si>
+  <si>
+    <t>SWITCH_TILE</t>
+  </si>
+  <si>
+    <t>TILE1</t>
+  </si>
+  <si>
+    <t>TILE2</t>
+  </si>
+  <si>
+    <t>TILE3</t>
+  </si>
+  <si>
+    <t>TILE4</t>
+  </si>
+  <si>
+    <t>TRAP1</t>
+  </si>
+  <si>
+    <t>TRAP2</t>
+  </si>
+  <si>
+    <t>TRAP3</t>
+  </si>
+  <si>
+    <t>TREASURE</t>
+  </si>
+  <si>
+    <t>TREASURE_CHEST</t>
+  </si>
+  <si>
+    <t>TREASURE10</t>
+  </si>
+  <si>
+    <t>TREASURE25</t>
+  </si>
+  <si>
+    <t>TREE</t>
+  </si>
+  <si>
+    <t>TROPHY</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>WALL</t>
+  </si>
+  <si>
+    <t>WALL_BL</t>
+  </si>
+  <si>
+    <t>WALL_BR</t>
+  </si>
+  <si>
+    <t>WALL_TL</t>
+  </si>
+  <si>
+    <t>WALL_TR</t>
+  </si>
+  <si>
+    <t>WALL2</t>
+  </si>
+  <si>
+    <t>WALL3</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>WEAPON</t>
+  </si>
+  <si>
+    <t>WEST</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>PLAYER_THIEF</t>
+  </si>
 </sst>
 </file>
 
@@ -2297,7 +2375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2333,18 +2411,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2375,7 +2444,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="68">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2824,6 +2914,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3216,10 +3313,10 @@
         <v/>
       </c>
       <c r="AA1" s="15" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="AF1">
         <f>LEN(AB1)</f>
@@ -3328,10 +3425,10 @@
         <v/>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="AB2" s="15" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF20" si="3">LEN(AB2)</f>
@@ -3440,10 +3537,10 @@
         <v/>
       </c>
       <c r="AA3" s="15" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="AB3" s="15" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="AF3">
         <f t="shared" si="3"/>
@@ -3552,10 +3649,10 @@
         <v/>
       </c>
       <c r="AA4" s="15" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="AB4" s="15" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="AF4">
         <f t="shared" si="3"/>
@@ -3664,10 +3761,10 @@
         <v/>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="AB5" s="15" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="AF5">
         <f t="shared" si="3"/>
@@ -3776,10 +3873,10 @@
         <v/>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="AB6" s="15" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="AF6">
         <f t="shared" si="3"/>
@@ -3888,10 +3985,10 @@
         <v/>
       </c>
       <c r="AA7" s="15" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="AB7" s="15" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="AF7">
         <f t="shared" si="3"/>
@@ -4000,10 +4097,10 @@
         <v/>
       </c>
       <c r="AA8" s="15" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="AB8" s="15" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="AF8">
         <f t="shared" si="3"/>
@@ -4112,10 +4209,10 @@
         <v/>
       </c>
       <c r="AA9" s="15" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="AB9" s="15" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="AF9">
         <f t="shared" si="3"/>
@@ -4224,10 +4321,10 @@
         <v/>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="AB10" s="15" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="AF10">
         <f t="shared" si="3"/>
@@ -4336,10 +4433,10 @@
         <v/>
       </c>
       <c r="AA11" s="15" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="AB11" s="15" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="AF11">
         <f t="shared" si="3"/>
@@ -4448,10 +4545,10 @@
         <v/>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="AB12" s="15" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="AF12">
         <f t="shared" si="3"/>
@@ -4560,10 +4657,10 @@
         <v/>
       </c>
       <c r="AA13" s="15" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="AB13" s="15" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="AF13">
         <f t="shared" si="3"/>
@@ -4672,10 +4769,10 @@
         <v/>
       </c>
       <c r="AA14" s="15" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="AB14" s="15" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="AF14">
         <f t="shared" si="3"/>
@@ -4784,10 +4881,10 @@
         <v/>
       </c>
       <c r="AA15" s="15" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="AB15" s="15" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="AF15">
         <f t="shared" si="3"/>
@@ -4896,10 +4993,10 @@
         <v/>
       </c>
       <c r="AA16" s="15" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="AB16" s="15" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="AF16">
         <f t="shared" si="3"/>
@@ -5008,10 +5105,10 @@
         <v/>
       </c>
       <c r="AA17" s="15" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="AB17" s="15" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="AF17">
         <f t="shared" si="3"/>
@@ -5120,10 +5217,10 @@
         <v/>
       </c>
       <c r="AA18" s="15" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="AB18" s="15" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="AF18">
         <f t="shared" si="3"/>
@@ -5232,10 +5329,10 @@
         <v/>
       </c>
       <c r="AA19" s="15" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AB19" s="15" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="AF19">
         <f t="shared" si="3"/>
@@ -5344,10 +5441,10 @@
         <v/>
       </c>
       <c r="AA20" s="15" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="AB20" s="15" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="AF20">
         <f t="shared" si="3"/>
@@ -5517,12 +5614,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="62" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7250,22 +7347,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="40" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8993,22 +9090,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="37" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="36" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9512,7 +9609,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>2</v>
@@ -9587,7 +9684,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>2</v>
@@ -9662,7 +9759,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>6</v>
@@ -9737,7 +9834,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>6</v>
@@ -9812,7 +9909,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>6</v>
@@ -9887,7 +9984,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>6</v>
@@ -9956,7 +10053,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>12</v>
@@ -9968,7 +10065,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>6</v>
@@ -10028,7 +10125,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>2</v>
@@ -10046,7 +10143,7 @@
         <v>2</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="N14" s="14" t="s">
         <v>12</v>
@@ -10736,22 +10833,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11454,16 +11551,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>2</v>
@@ -11484,25 +11581,25 @@
         <v>6</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S10" s="14" t="s">
         <v>6</v>
@@ -11526,19 +11623,19 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>2</v>
@@ -11559,25 +11656,25 @@
         <v>6</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S11" s="14" t="s">
         <v>6</v>
@@ -12477,12 +12574,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13190,7 +13287,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>12</v>
@@ -13337,7 +13434,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>14</v>
@@ -13412,10 +13509,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>7</v>
@@ -13487,7 +13584,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -14210,12 +14307,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14298,8 +14395,8 @@
       <c r="S1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="26" t="s">
-        <v>130</v>
+      <c r="T1" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -15943,12 +16040,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16626,13 +16723,13 @@
         <v>2</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="T9" s="7" t="s">
         <v>2</v>
@@ -16662,13 +16759,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>6</v>
@@ -16701,13 +16798,13 @@
         <v>2</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="T10" s="7" t="s">
         <v>2</v>
@@ -16740,7 +16837,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>6</v>
@@ -16776,10 +16873,10 @@
         <v>8</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S11" s="14" t="s">
         <v>25</v>
@@ -16851,13 +16948,13 @@
         <v>2</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="T12" s="7" t="s">
         <v>2</v>
@@ -17337,13 +17434,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>6</v>
@@ -17355,7 +17452,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>2</v>
@@ -17679,12 +17776,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18113,13 +18210,13 @@
         <v>13</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>14</v>
@@ -18188,13 +18285,13 @@
         <v>6</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>6</v>
@@ -18263,13 +18360,13 @@
         <v>6</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>6</v>
@@ -18314,10 +18411,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>6</v>
@@ -18365,10 +18462,10 @@
         <v>6</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
@@ -18389,10 +18486,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>6</v>
@@ -18440,7 +18537,7 @@
         <v>6</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="T10" s="7" t="s">
         <v>23</v>
@@ -18464,10 +18561,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>6</v>
@@ -18515,10 +18612,10 @@
         <v>6</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
@@ -18638,13 +18735,13 @@
         <v>6</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>6</v>
@@ -18713,13 +18810,13 @@
         <v>6</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>7</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>6</v>
@@ -18788,13 +18885,13 @@
         <v>11</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>12</v>
@@ -19412,12 +19509,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19762,7 +19859,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>16</v>
@@ -19837,10 +19934,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>2</v>
@@ -19939,7 +20036,7 @@
         <v>6</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="14" t="s">
         <v>6</v>
@@ -20146,7 +20243,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>6</v>
@@ -20326,7 +20423,7 @@
         <v>6</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
@@ -20746,7 +20843,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>6</v>
@@ -20758,7 +20855,7 @@
         <v>6</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>6</v>
@@ -20818,13 +20915,13 @@
         <v>6</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>6</v>
@@ -20890,19 +20987,19 @@
         <v>6</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>18</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="M20" s="14" t="s">
         <v>6</v>
@@ -21145,12 +21242,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21297,7 +21394,7 @@
         <v>2</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>6</v>
@@ -21705,10 +21802,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>2</v>
@@ -21726,7 +21823,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>6</v>
@@ -21780,10 +21877,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>2</v>
@@ -21855,10 +21952,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>2</v>
@@ -21900,13 +21997,13 @@
         <v>2</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="T10" s="14" t="s">
         <v>2</v>
@@ -21951,7 +22048,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>2</v>
@@ -21975,10 +22072,10 @@
         <v>31</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S11" s="14" t="s">
         <v>25</v>
@@ -22026,7 +22123,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>9</v>
@@ -22053,10 +22150,10 @@
         <v>31</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="T12" s="14" t="s">
         <v>2</v>
@@ -22878,12 +22975,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24611,12 +24708,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="60" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24672,7 +24769,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>2</v>
@@ -24717,7 +24814,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>6</v>
@@ -24774,7 +24871,7 @@
         <v>6</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
@@ -24792,7 +24889,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>6</v>
@@ -24849,7 +24946,7 @@
         <v>6</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -24867,7 +24964,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>6</v>
@@ -25041,7 +25138,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>6</v>
@@ -25056,7 +25153,7 @@
         <v>6</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>6</v>
@@ -25116,7 +25213,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>6</v>
@@ -25131,7 +25228,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>6</v>
@@ -25191,7 +25288,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>6</v>
@@ -25206,7 +25303,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>6</v>
@@ -25320,10 +25417,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>2</v>
@@ -25395,13 +25492,13 @@
         <v>22</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="E11" s="14">
         <v>8</v>
@@ -25446,7 +25543,7 @@
         <v>8</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="T11" s="14" t="s">
         <v>23</v>
@@ -25470,10 +25567,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>2</v>
@@ -25641,7 +25738,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>6</v>
@@ -25656,7 +25753,7 @@
         <v>6</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="O14" s="14" t="s">
         <v>6</v>
@@ -25716,7 +25813,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>6</v>
@@ -25731,7 +25828,7 @@
         <v>6</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="O15" s="14" t="s">
         <v>6</v>
@@ -25791,7 +25888,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>6</v>
@@ -25806,7 +25903,7 @@
         <v>6</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="O16" s="14" t="s">
         <v>6</v>
@@ -25842,7 +25939,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>6</v>
@@ -25917,7 +26014,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>6</v>
@@ -25992,7 +26089,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>6</v>
@@ -26082,13 +26179,13 @@
         <v>12</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>2</v>
@@ -26097,22 +26194,22 @@
         <v>2</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="14" t="s">
         <v>11</v>
@@ -26141,83 +26238,83 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
+      <c r="A21" s="28">
         <f>COLUMN()</f>
         <v>1</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="28">
         <f>COLUMN()</f>
         <v>2</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="28">
         <f>COLUMN()</f>
         <v>3</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="28">
         <f>COLUMN()</f>
         <v>4</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="28">
         <f>COLUMN()</f>
         <v>5</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="28">
         <f>COLUMN()</f>
         <v>6</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="28">
         <f>COLUMN()</f>
         <v>7</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="28">
         <f>COLUMN()</f>
         <v>8</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="28">
         <f>COLUMN()</f>
         <v>9</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="28">
         <f>COLUMN()</f>
         <v>10</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="28">
         <f>COLUMN()</f>
         <v>11</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="28">
         <f>COLUMN()</f>
         <v>12</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="28">
         <f>COLUMN()</f>
         <v>13</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="28">
         <f>COLUMN()</f>
         <v>14</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="28">
         <f>COLUMN()</f>
         <v>15</v>
       </c>
-      <c r="P21" s="31">
+      <c r="P21" s="28">
         <f>COLUMN()</f>
         <v>16</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="28">
         <f>COLUMN()</f>
         <v>17</v>
       </c>
-      <c r="R21" s="31">
+      <c r="R21" s="28">
         <f>COLUMN()</f>
         <v>18</v>
       </c>
-      <c r="S21" s="31">
+      <c r="S21" s="28">
         <f>COLUMN()</f>
         <v>19</v>
       </c>
-      <c r="T21" s="31">
+      <c r="T21" s="28">
         <f>COLUMN()</f>
         <v>20</v>
       </c>
@@ -26403,22 +26500,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26431,7 +26528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -26504,12 +26601,12 @@
       <c r="T1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="31"/>
+      <c r="U1" s="28"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="5"/>
-      <c r="Z1" s="31">
+      <c r="Z1" s="28">
         <f>ROW()-1</f>
         <v>0</v>
       </c>
@@ -26548,13 +26645,13 @@
         <v>2</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>2</v>
@@ -26583,12 +26680,12 @@
       <c r="T2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="31"/>
+      <c r="U2" s="28"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="9"/>
-      <c r="Z2" s="31">
+      <c r="Z2" s="28">
         <f t="shared" ref="Z2:Z20" si="0">ROW()-1</f>
         <v>1</v>
       </c>
@@ -26627,13 +26724,13 @@
         <v>2</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>2</v>
@@ -26662,12 +26759,12 @@
       <c r="T3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="31"/>
+      <c r="U3" s="28"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="9"/>
-      <c r="Z3" s="31">
+      <c r="Z3" s="28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -26741,12 +26838,12 @@
       <c r="T4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="31"/>
+      <c r="U4" s="28"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="31">
+      <c r="Z4" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -26820,12 +26917,12 @@
       <c r="T5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="31"/>
+      <c r="U5" s="28"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="31">
+      <c r="Z5" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -26843,7 +26940,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>6</v>
@@ -26899,12 +26996,12 @@
       <c r="T6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="31"/>
+      <c r="U6" s="28"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="9"/>
-      <c r="Z6" s="31">
+      <c r="Z6" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -26978,12 +27075,12 @@
       <c r="T7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U7" s="31"/>
+      <c r="U7" s="28"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="9"/>
-      <c r="Z7" s="31">
+      <c r="Z7" s="28">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -27013,13 +27110,13 @@
         <v>2</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>6</v>
@@ -27057,12 +27154,12 @@
       <c r="T8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U8" s="31"/>
+      <c r="U8" s="28"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="9"/>
-      <c r="Z8" s="31">
+      <c r="Z8" s="28">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -27080,31 +27177,31 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>6</v>
@@ -27136,12 +27233,12 @@
       <c r="T9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U9" s="31"/>
+      <c r="U9" s="28"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="9"/>
-      <c r="Z9" s="31">
+      <c r="Z9" s="28">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -27159,34 +27256,34 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>6</v>
@@ -27215,12 +27312,12 @@
       <c r="T10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U10" s="31"/>
+      <c r="U10" s="28"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="9"/>
-      <c r="Z10" s="31">
+      <c r="Z10" s="28">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -27238,68 +27335,68 @@
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U11" s="31"/>
+      <c r="U11" s="28"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="31">
+      <c r="Z11" s="28">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -27317,34 +27414,34 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>6</v>
@@ -27373,12 +27470,12 @@
       <c r="T12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U12" s="31"/>
+      <c r="U12" s="28"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="9"/>
-      <c r="Z12" s="31">
+      <c r="Z12" s="28">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -27396,31 +27493,31 @@
         <v>2</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>6</v>
@@ -27452,12 +27549,12 @@
       <c r="T13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U13" s="31"/>
+      <c r="U13" s="28"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="9"/>
-      <c r="Z13" s="31">
+      <c r="Z13" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -27487,13 +27584,13 @@
         <v>2</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>6</v>
@@ -27531,12 +27628,12 @@
       <c r="T14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U14" s="31"/>
+      <c r="U14" s="28"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="9"/>
-      <c r="Z14" s="31">
+      <c r="Z14" s="28">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -27610,12 +27707,12 @@
       <c r="T15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U15" s="31"/>
+      <c r="U15" s="28"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="9"/>
-      <c r="Z15" s="31">
+      <c r="Z15" s="28">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -27633,7 +27730,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>6</v>
@@ -27689,12 +27786,12 @@
       <c r="T16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="31"/>
+      <c r="U16" s="28"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="31">
+      <c r="Z16" s="28">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -27768,12 +27865,12 @@
       <c r="T17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U17" s="31"/>
+      <c r="U17" s="28"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="31">
+      <c r="Z17" s="28">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -27812,13 +27909,13 @@
         <v>2</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>2</v>
@@ -27847,12 +27944,12 @@
       <c r="T18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U18" s="31"/>
+      <c r="U18" s="28"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="9"/>
-      <c r="Z18" s="31">
+      <c r="Z18" s="28">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -27891,13 +27988,13 @@
         <v>2</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>2</v>
@@ -27926,12 +28023,12 @@
       <c r="T19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U19" s="31"/>
+      <c r="U19" s="28"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="9"/>
-      <c r="Z19" s="31">
+      <c r="Z19" s="28">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -28005,12 +28102,12 @@
       <c r="T20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U20" s="31"/>
+      <c r="U20" s="28"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="9"/>
-      <c r="Z20" s="31">
+      <c r="Z20" s="28">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -28024,83 +28121,83 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
+      <c r="A21" s="28">
         <f>COLUMN()-1</f>
         <v>0</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="28">
         <f t="shared" ref="B21:T21" si="3">COLUMN()-1</f>
         <v>1</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="28">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="28">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="28">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="28">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="28">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="28">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="28">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="28">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="28">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="28">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="P21" s="31">
+      <c r="P21" s="28">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="28">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="R21" s="31">
+      <c r="R21" s="28">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="S21" s="31">
+      <c r="S21" s="28">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="T21" s="31">
+      <c r="T21" s="28">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -28286,17 +28383,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28346,7 +28443,7 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="26" t="s">
         <v>12</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -28387,7 +28484,7 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="5"/>
-      <c r="Z1" s="31">
+      <c r="Z1" s="28">
         <f>ROW()-1</f>
         <v>0</v>
       </c>
@@ -28466,7 +28563,7 @@
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="9"/>
-      <c r="Z2" s="31">
+      <c r="Z2" s="28">
         <f t="shared" ref="Z2:Z20" si="0">ROW()-1</f>
         <v>1</v>
       </c>
@@ -28545,7 +28642,7 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="9"/>
-      <c r="Z3" s="31">
+      <c r="Z3" s="28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -28624,7 +28721,7 @@
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="31">
+      <c r="Z4" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -28703,7 +28800,7 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="31">
+      <c r="Z5" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -28742,13 +28839,13 @@
         <v>6</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>6</v>
@@ -28782,7 +28879,7 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="9"/>
-      <c r="Z6" s="31">
+      <c r="Z6" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -28821,13 +28918,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>6</v>
@@ -28861,7 +28958,7 @@
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="9"/>
-      <c r="Z7" s="31">
+      <c r="Z7" s="28">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -28900,13 +28997,13 @@
         <v>6</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>6</v>
@@ -28940,7 +29037,7 @@
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="9"/>
-      <c r="Z8" s="31">
+      <c r="Z8" s="28">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -28979,13 +29076,13 @@
         <v>6</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>6</v>
@@ -29019,7 +29116,7 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="9"/>
-      <c r="Z9" s="31">
+      <c r="Z9" s="28">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -29058,13 +29155,13 @@
         <v>6</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>6</v>
@@ -29098,7 +29195,7 @@
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="9"/>
-      <c r="Z10" s="31">
+      <c r="Z10" s="28">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -29137,13 +29234,13 @@
         <v>6</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>6</v>
@@ -29177,7 +29274,7 @@
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="31">
+      <c r="Z11" s="28">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -29216,13 +29313,13 @@
         <v>6</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>6</v>
@@ -29256,7 +29353,7 @@
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="9"/>
-      <c r="Z12" s="31">
+      <c r="Z12" s="28">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -29295,13 +29392,13 @@
         <v>6</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>6</v>
@@ -29335,7 +29432,7 @@
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="9"/>
-      <c r="Z13" s="31">
+      <c r="Z13" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -29374,13 +29471,13 @@
         <v>6</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>6</v>
@@ -29414,7 +29511,7 @@
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="9"/>
-      <c r="Z14" s="31">
+      <c r="Z14" s="28">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -29453,13 +29550,13 @@
         <v>6</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>6</v>
@@ -29493,7 +29590,7 @@
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="9"/>
-      <c r="Z15" s="31">
+      <c r="Z15" s="28">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -29535,7 +29632,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>6</v>
@@ -29572,7 +29669,7 @@
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="31">
+      <c r="Z16" s="28">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -29614,7 +29711,7 @@
         <v>6</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>6</v>
@@ -29651,7 +29748,7 @@
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="31">
+      <c r="Z17" s="28">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -29730,7 +29827,7 @@
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="9"/>
-      <c r="Z18" s="31">
+      <c r="Z18" s="28">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -29772,7 +29869,7 @@
         <v>6</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>6</v>
@@ -29809,7 +29906,7 @@
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="9"/>
-      <c r="Z19" s="31">
+      <c r="Z19" s="28">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -29888,7 +29985,7 @@
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="9"/>
-      <c r="Z20" s="31">
+      <c r="Z20" s="28">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -29902,83 +29999,83 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
+      <c r="A21" s="28">
         <f>COLUMN()-1</f>
         <v>0</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="28">
         <f t="shared" ref="B21:T21" si="3">COLUMN()-1</f>
         <v>1</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="28">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="28">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="28">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="28">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="28">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="28">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="28">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="28">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="28">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="28">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="P21" s="31">
+      <c r="P21" s="28">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="28">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="R21" s="31">
+      <c r="R21" s="28">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="S21" s="31">
+      <c r="S21" s="28">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="T21" s="31">
+      <c r="T21" s="28">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -30164,32 +30261,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Y20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30200,64 +30297,64 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="21"/>
-    <col min="4" max="4" width="9.140625" style="18"/>
+    <col min="1" max="1" width="11.5703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="19"/>
+    <col min="4" max="4" width="9.140625" style="17"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>131</v>
+      <c r="A1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="20" t="b">
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="18" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C2)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E33" si="0">B2&amp;"='"&amp;C2&amp;"'"</f>
-        <v>BANG ='$'</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>133</v>
+        <f t="shared" ref="E2:E34" si="0">B2&amp;"='"&amp;C2&amp;"'"</f>
+        <v>BANG='$'</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="I2" t="str">
         <f>TRIM(MID($H2,1,FIND("=",$H2)-1))</f>
@@ -30267,2148 +30364,2357 @@
         <f>SUBSTITUTE(TRIM(MID($H2,FIND("=",$H2)+1,200)),"'","")</f>
         <v>$</v>
       </c>
-      <c r="K2" s="20" t="b">
+      <c r="K2" s="18" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J2)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C3)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>BOMB='q'</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I67" si="1">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
+        <v>BOMB</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J67" si="2">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
+        <v>q</v>
+      </c>
+      <c r="K3" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J3)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C4)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>BOMB_LIT='Q'</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>BOMB_LIT</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>Q</v>
+      </c>
+      <c r="K4" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J4)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C5)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>BOSS_DOOR='F'</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>BOSS_DOOR</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="K5" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J5)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C6)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>BOSS_DOOR_OPEN='f'</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>BOSS_DOOR_OPEN</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>f</v>
+      </c>
+      <c r="K6" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J6)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C7)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>BRAZIER='B'</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>BRAZIER</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="K7" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J7)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C8)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>DECORATION1='z'</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>DECORATION1</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>z</v>
+      </c>
+      <c r="K8" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J8)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C9)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>DECORATION2='Z'</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>DECORATION2</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>Z</v>
+      </c>
+      <c r="K9" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J9)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C10)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>DOOR='D'</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>DOOR</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="K10" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J10)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C11)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>DOOR_OPEN='d'</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>DOOR_OPEN</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>d</v>
+      </c>
+      <c r="K11" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J11)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C12)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>DOT1='!'</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>DOT1</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>!</v>
+      </c>
+      <c r="K12" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J12)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C13)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>DOT2='£'</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>DOT2</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>£</v>
+      </c>
+      <c r="K13" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J13)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C14)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN='-'</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K14" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J14)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C15)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>EAST='E'</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>EAST</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>E</v>
+      </c>
+      <c r="K15" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J15)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C16)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>EMPTY=' '</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K16" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J16)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C17)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>EXIT_KEY='%'</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>EXIT_KEY</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="K17" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J17)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C18)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>HEART='HP'</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>HEART</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>HP</v>
+      </c>
+      <c r="K18" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J18)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C19)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>REPLENISH='"H"'</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>REPLENISH</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="2"/>
+        <v>"H"</v>
+      </c>
+      <c r="K19" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J19)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C20)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>KEY='?'</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>KEY</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="2"/>
+        <v>?</v>
+      </c>
+      <c r="K20" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J20)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C21)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>MAP='M'</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>MAP</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="K21" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J21)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C22)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>MONSTER1='1'</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>MONSTER1</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J22)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C23)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>MONSTER2='2'</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>MONSTER2</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K23" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J23)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C24)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>MONSTER3='3'</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>MONSTER3</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K24" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J24)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C25)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>BOSS='4'</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>BOSS</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K25" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J25)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C26)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>BOSS_KEY='K'</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>BOSS_KEY</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="2"/>
+        <v>K</v>
+      </c>
+      <c r="K26" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J26)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C27)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>NEXT_LEVEL='L'</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>NEXT_LEVEL</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="K27" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J27)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C28)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>NORTH='N'</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>NORTH</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="2"/>
+        <v>N</v>
+      </c>
+      <c r="K28" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J28)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C29)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>PLAYER='P'</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>PLAYER</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="2"/>
+        <v>P</v>
+      </c>
+      <c r="K29" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J29)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C30)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>PLAYER_ARMOUR='p'</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>PLAYER_ARMOUR</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="2"/>
+        <v>p</v>
+      </c>
+      <c r="K30" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J30)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C31)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>PLAYER_GOLD='g'</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>PLAYER_GOLD</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="2"/>
+        <v>g</v>
+      </c>
+      <c r="K31" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J31)))&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C32)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" ref="E32" si="3">B32&amp;"='"&amp;C32&amp;"'"</f>
+        <v>PLAYER_THIEF='a'</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>PLAYER_GOLD</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="2"/>
+        <v>g</v>
+      </c>
+      <c r="K32" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J32)))&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C33)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>PLAYER_SPIKE='A'</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>PLAYER_SPIKE</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="K33" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J33)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C34)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>NPC1='Y'</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>NPC1</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="2"/>
+        <v>Y</v>
+      </c>
+      <c r="K34" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J34)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C35)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" ref="E35:E65" si="4">B35&amp;"='"&amp;C35&amp;"'"</f>
+        <v>NPC2='y'</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v>NPC2</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="2"/>
+        <v>y</v>
+      </c>
+      <c r="K35" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J35)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C36)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="4"/>
+        <v>PREVIOUS_LEVEL='l'</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>PREVIOUS_LEVEL</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="2"/>
+        <v>l</v>
+      </c>
+      <c r="K36" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J36)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C37)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="4"/>
+        <v>RED_POTION='R'</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v>RED_POTION</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="2"/>
+        <v>R</v>
+      </c>
+      <c r="K37" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J37)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C38)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="4"/>
+        <v>RUNE='u'</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v>RUNE</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="2"/>
+        <v>u</v>
+      </c>
+      <c r="K38" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J38)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C39)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="4"/>
+        <v>RUNE1='R1'</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v>RUNE1</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="2"/>
+        <v>R1</v>
+      </c>
+      <c r="K39" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J39)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C40)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="4"/>
+        <v>RUNE2='R2'</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v>RUNE2</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="2"/>
+        <v>R2</v>
+      </c>
+      <c r="K40" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J40)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C41)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="4"/>
+        <v>RUNE3='R3'</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>RUNE3</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="2"/>
+        <v>R3</v>
+      </c>
+      <c r="K41" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J41)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C42)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="4"/>
+        <v>RUNE4='R4'</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v>RUNE4</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="2"/>
+        <v>R4</v>
+      </c>
+      <c r="K42" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J42)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C43)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="4"/>
+        <v>RUNE5='R5'</v>
+      </c>
+      <c r="H43" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="20" t="b">
-        <f t="shared" ref="D3:D64" si="1">SUMPRODUCT(--(EXACT(C:C,C3)))&gt;1</f>
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v>RUNE5</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="2"/>
+        <v>R5</v>
+      </c>
+      <c r="K43" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J43)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" si="0"/>
-        <v>BEACH ='b'</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I66" si="2">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
-        <v>BOMB</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="3">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
-        <v>q</v>
-      </c>
-      <c r="K3" s="20" t="b">
-        <f t="shared" ref="K3:K65" si="4">SUMPRODUCT(--(EXACT(J:J,J3)))&gt;1</f>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C44)))&gt;1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="E44" t="str">
+        <f t="shared" si="4"/>
+        <v>SAFETY='8'</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v>SAFETY</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K44" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J44)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C45)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="4"/>
+        <v>SECRET_TREASURE='J'</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v>SECRET_TREASURE</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="2"/>
+        <v>J</v>
+      </c>
+      <c r="K45" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J45)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C46)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="4"/>
+        <v>SECRET_WALL=';'</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v>SECRET_WALL</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="2"/>
+        <v>;</v>
+      </c>
+      <c r="K46" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J46)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C47)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="4"/>
+        <v>SHIELD='O'</v>
+      </c>
+      <c r="H47" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="20" t="b">
-        <f t="shared" si="1"/>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>SHIELD</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="2"/>
+        <v>O</v>
+      </c>
+      <c r="K47" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J47)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>BOMB ='q'</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" t="str">
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C48)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="4"/>
+        <v>SHOP='s'</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v>SHOP</v>
+      </c>
+      <c r="J48" t="str">
         <f t="shared" si="2"/>
-        <v>BOMB_LIT</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="3"/>
-        <v>Q</v>
-      </c>
-      <c r="K4" s="20" t="b">
+        <v>s</v>
+      </c>
+      <c r="K48" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J48)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C49)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>BOMB_LIT ='Q'</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="2"/>
-        <v>BOSS_DOOR</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="K5" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="21" t="s">
+        <v>SHOP_KEEPER='SHOP'</v>
+      </c>
+      <c r="H49" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>BOSS_DOOR ='d'</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="2"/>
-        <v>BOSS_DOOR_OPEN</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="3"/>
-        <v>f</v>
-      </c>
-      <c r="K6" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>BRAZIER ='B'</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v>BRAZIER</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="K7" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>CLOUD ='.'</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v>DECORATION1</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="3"/>
-        <v>z</v>
-      </c>
-      <c r="K8" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>DECORATION1 ='z'</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v>DECORATION2</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="3"/>
-        <v>Z</v>
-      </c>
-      <c r="K9" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>DECORATION2 ='Z'</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>DOOR</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="K10" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>DOOR ='D'</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v>DOOR_OPEN</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="3"/>
-        <v>d</v>
-      </c>
-      <c r="K11" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>DOT1 ='!'</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>DOT1</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="3"/>
-        <v>!</v>
-      </c>
-      <c r="K12" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>DOT2 ='£'</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v>DOT2</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="3"/>
-        <v>£</v>
-      </c>
-      <c r="K13" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>DOWN ='-'</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v>DOWN</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="K14" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>EAST ='E'</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="2"/>
-        <v>EAST</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="3"/>
-        <v>E</v>
-      </c>
-      <c r="K15" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>EMPTY =' '</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K16" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>EXIT_KEY ='%'</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>EXIT_KEY</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="3"/>
-        <v>%</v>
-      </c>
-      <c r="K17" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>HEART ='HP'</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="2"/>
-        <v>HEART</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="3"/>
-        <v>HP</v>
-      </c>
-      <c r="K18" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>KEY ='?'</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="2"/>
-        <v>REPLENISH</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="3"/>
-        <v>"H"</v>
-      </c>
-      <c r="K19" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>MAP ='M'</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="2"/>
-        <v>KEY</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v>?</v>
-      </c>
-      <c r="K20" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>MONSTER1 ='1'</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="2"/>
-        <v>MAP</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="K21" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="21">
-        <v>2</v>
-      </c>
-      <c r="D22" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>MONSTER2 ='2'</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="2"/>
-        <v>MONSTER1</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K22" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="21">
-        <v>3</v>
-      </c>
-      <c r="D23" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>MONSTER3 ='3'</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="2"/>
-        <v>MONSTER2</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K23" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>NEXT_LEVEL ='L'</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="2"/>
-        <v>MONSTER3</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="K24" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>NORTH ='N'</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="2"/>
-        <v>BOSS</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="K25" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>PLAYER ='P'</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="2"/>
-        <v>BOSS_KEY</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="3"/>
-        <v>K</v>
-      </c>
-      <c r="K26" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>PREVIOUS_LEVEL ='l'</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="2"/>
-        <v>NEXT_LEVEL</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="3"/>
-        <v>L</v>
-      </c>
-      <c r="K27" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>RED_POTION ='R'</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="2"/>
-        <v>NORTH</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
-      </c>
-      <c r="K28" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE ='u'</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="2"/>
-        <v>PLAYER</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-      <c r="K29" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE1 ='R1'</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="2"/>
-        <v>PLAYER_ARMOUR</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="3"/>
-        <v>p</v>
-      </c>
-      <c r="K30" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE2 ='R2'</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="2"/>
-        <v>PLAYER_GOLD</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="3"/>
-        <v>g</v>
-      </c>
-      <c r="K31" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE3 ='R3'</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="2"/>
-        <v>PLAYER_SPIKE</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="K32" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE4 ='R4'</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="2"/>
-        <v>NPC1</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="3"/>
-        <v>Y</v>
-      </c>
-      <c r="K33" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" ref="E34:E64" si="5">B34&amp;"='"&amp;C34&amp;"'"</f>
-        <v>RUNE5 ='R5'</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="2"/>
-        <v>NPC2</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="3"/>
-        <v>y</v>
-      </c>
-      <c r="K34" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="21">
-        <v>8</v>
-      </c>
-      <c r="D35" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="5"/>
-        <v>SAFETY ='8'</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="2"/>
-        <v>PREVIOUS_LEVEL</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="3"/>
-        <v>l</v>
-      </c>
-      <c r="K35" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="5"/>
-        <v>SECRET_TREASURE ='J'</v>
-      </c>
-      <c r="H36" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="2"/>
-        <v>RED_POTION</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
-      </c>
-      <c r="K36" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="5"/>
-        <v>SECRET_WALL =';'</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="2"/>
-        <v>RUNE</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="3"/>
-        <v>u</v>
-      </c>
-      <c r="K37" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="5"/>
-        <v>SHIELD ='O'</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="2"/>
-        <v>RUNE1</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="3"/>
-        <v>R1</v>
-      </c>
-      <c r="K38" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="5"/>
-        <v>SHOP ='s'</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="2"/>
-        <v>RUNE2</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="3"/>
-        <v>R2</v>
-      </c>
-      <c r="K39" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="5"/>
-        <v>SHOP_KEEPER ='SHOP'</v>
-      </c>
-      <c r="H40" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="2"/>
-        <v>RUNE3</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="3"/>
-        <v>R3</v>
-      </c>
-      <c r="K40" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="5"/>
-        <v>SKY ='~'</v>
-      </c>
-      <c r="H41" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="2"/>
-        <v>RUNE4</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="3"/>
-        <v>R4</v>
-      </c>
-      <c r="K41" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="5"/>
-        <v>SOUTH ='S'</v>
-      </c>
-      <c r="H42" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="2"/>
-        <v>RUNE5</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="3"/>
-        <v>R5</v>
-      </c>
-      <c r="K42" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="5"/>
-        <v>START_POSITON ='='</v>
-      </c>
-      <c r="H43" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="2"/>
-        <v>SAFETY</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K43" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="5"/>
-        <v>SWITCH =','</v>
-      </c>
-      <c r="H44" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="2"/>
-        <v>SECRET_TREASURE</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="3"/>
-        <v>J</v>
-      </c>
-      <c r="K44" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="5"/>
-        <v>SWITCH_LIT ='&lt;'</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="2"/>
-        <v>SECRET_WALL</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="3"/>
-        <v>;</v>
-      </c>
-      <c r="K45" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="5"/>
-        <v>SWITCH_TILE ='_'</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="2"/>
-        <v>SHIELD</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="3"/>
-        <v>O</v>
-      </c>
-      <c r="K46" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="5"/>
-        <v>TRAP1 ='^'</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="I47" t="str">
+      <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v>SHOP_KEEPER</v>
+      </c>
+      <c r="J49" t="str">
         <f t="shared" si="2"/>
         <v>SHOP</v>
       </c>
-      <c r="J47" t="str">
-        <f t="shared" si="3"/>
-        <v>s</v>
-      </c>
-      <c r="K47" s="20" t="b">
+      <c r="K49" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J49)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C50)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
         <f t="shared" si="4"/>
+        <v>SOUTH='S'</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v>SOUTH</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="K50" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J50)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="19" t="s">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C51)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="4"/>
+        <v>START_POSITION='='</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v>START_POSITION</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="2"/>
+        <v>=</v>
+      </c>
+      <c r="K51" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J51)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="D52" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C52)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="4"/>
+        <v>SWITCH=','</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="1"/>
+        <v>SWITCH</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="K52" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J52)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C53)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="4"/>
+        <v>SWITCH_LIT='&lt;'</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="1"/>
+        <v>SWITCH_LIT</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K53" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J53)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C54)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="4"/>
+        <v>SWITCH_TILE='_'</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="1"/>
+        <v>SWITCH_TILE</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="2"/>
+        <v>_</v>
+      </c>
+      <c r="K54" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J54)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C55)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="4"/>
+        <v>TILE1='`'</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="1"/>
+        <v>TILE1</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="2"/>
+        <v>`</v>
+      </c>
+      <c r="K55" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J55)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C56)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="4"/>
+        <v>TILE2='¬'</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v>TILE2</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="2"/>
+        <v>¬</v>
+      </c>
+      <c r="K56" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J56)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C57)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="4"/>
+        <v>TILE3='.'</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="1"/>
+        <v>TILE3</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="2"/>
+        <v>.</v>
+      </c>
+      <c r="K57" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J57)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C58)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="4"/>
+        <v>TILE4='~'</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="1"/>
+        <v>TILE4</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="2"/>
+        <v>~</v>
+      </c>
+      <c r="K58" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J58)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C59)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="4"/>
+        <v>TRAP1='^'</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="1"/>
+        <v>TRAP1</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="2"/>
+        <v>^</v>
+      </c>
+      <c r="K59" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J59)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C60)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="4"/>
+        <v>TRAP2='&amp;'</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="1"/>
+        <v>TRAP2</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp;</v>
+      </c>
+      <c r="K60" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J60)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C61)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="4"/>
+        <v>TRAP3='['</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v>TRAP3</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="2"/>
+        <v>[</v>
+      </c>
+      <c r="K61" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J61)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C62)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="4"/>
+        <v>TREASURE='*'</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v>TREASURE</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="K62" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J62)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C63)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="4"/>
+        <v>TREASURE_CHEST='j'</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="1"/>
+        <v>TREASURE_CHEST</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="2"/>
+        <v>j</v>
+      </c>
+      <c r="K63" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J63)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>256</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C64)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="4"/>
+        <v>TREASURE10='x'</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v>TREASURE10</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="2"/>
+        <v>x</v>
+      </c>
+      <c r="K64" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J64)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>257</v>
+      </c>
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C65)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="4"/>
+        <v>TREASURE25='X'</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v>TREASURE25</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="K65" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J65)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ref="E66:E77" si="5">B66&amp;"='"&amp;C66&amp;"'"</f>
+        <v>TREE='T'</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="1"/>
+        <v>TREE</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="K66" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>259</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C67)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="5"/>
+        <v>TROPHY='G'</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="1"/>
+        <v>TROPHY</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="2"/>
+        <v>G</v>
+      </c>
+      <c r="K67" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J67)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C68)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="5"/>
+        <v>UP='+'</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" ref="I68:I77" si="6">TRIM(MID($H68,1,FIND("=",$H68)-1))</f>
+        <v>UP</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" ref="J68:J77" si="7">SUBSTITUTE(TRIM(MID($H68,FIND("=",$H68)+1,200)),"'","")</f>
+        <v>+</v>
+      </c>
+      <c r="K68" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J68)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C69)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="5"/>
+        <v>WALL=':'</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="6"/>
+        <v>WALL</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="7"/>
+        <v>:</v>
+      </c>
+      <c r="K69" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J69)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C70)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="5"/>
+        <v>WALL_BL='('</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="6"/>
+        <v>WALL_BL</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="7"/>
+        <v>(</v>
+      </c>
+      <c r="K70" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J70)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>263</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C71)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="5"/>
+        <v>WALL_BR=')'</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="6"/>
+        <v>WALL_BR</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="7"/>
+        <v>)</v>
+      </c>
+      <c r="K71" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J71)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C72)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="5"/>
+        <v>WALL_TL='/'</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="6"/>
+        <v>WALL_TL</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="7"/>
+        <v>/</v>
+      </c>
+      <c r="K72" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J72)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C73)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="5"/>
+        <v>WALL_TR='\\'</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="6"/>
+        <v>WALL_TR</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="7"/>
+        <v>\\</v>
+      </c>
+      <c r="K73" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J73)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>266</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C74)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="5"/>
+        <v>WALL2='w'</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="6"/>
+        <v>WALL2</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="7"/>
+        <v>w</v>
+      </c>
+      <c r="K74" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J74)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>267</v>
+      </c>
+      <c r="C75" t="s">
+        <v>268</v>
+      </c>
+      <c r="D75" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C75)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="5"/>
+        <v>WALL3='e'</v>
+      </c>
+      <c r="H75" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="6"/>
+        <v>WALL3</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="7"/>
+        <v>e</v>
+      </c>
+      <c r="K75" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J75)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>269</v>
+      </c>
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C76)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="5"/>
+        <v>WEAPON='|'</v>
+      </c>
+      <c r="H76" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="20" t="b">
-        <f t="shared" si="1"/>
+      <c r="I76" t="str">
+        <f t="shared" si="6"/>
+        <v>WEAPON</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="7"/>
+        <v>|</v>
+      </c>
+      <c r="K76" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J76)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E48" t="str">
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C77)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
         <f t="shared" si="5"/>
-        <v>TRAP2 ='&amp;'</v>
-      </c>
-      <c r="H48" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="2"/>
-        <v>SHOP_KEEPER</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="3"/>
-        <v>SHOP</v>
-      </c>
-      <c r="K48" s="20" t="b">
-        <f t="shared" si="4"/>
+        <v>WEST='W'</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="6"/>
+        <v>WEST</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="K77" s="18" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J77)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="5"/>
-        <v>TRAP3 ='['</v>
-      </c>
-      <c r="H49" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="2"/>
-        <v>SOUTH</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="K49" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="5"/>
-        <v>TREASURE ='*'</v>
-      </c>
-      <c r="H50" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" si="2"/>
-        <v>START_POSITION</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="3"/>
-        <v>=</v>
-      </c>
-      <c r="K50" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="5"/>
-        <v>TREASURE_CHEST ='j'</v>
-      </c>
-      <c r="H51" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" si="2"/>
-        <v>SWITCH</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="3"/>
-        <v>,</v>
-      </c>
-      <c r="K51" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="5"/>
-        <v>TREASURE10 ='x'</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="I52" t="str">
-        <f t="shared" si="2"/>
-        <v>SWITCH_LIT</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;</v>
-      </c>
-      <c r="K52" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="5"/>
-        <v>TREASURE25 ='X'</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="I53" t="str">
-        <f t="shared" si="2"/>
-        <v>SWITCH_TILE</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="3"/>
-        <v>_</v>
-      </c>
-      <c r="K53" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="5"/>
-        <v>TREE ='T'</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="I54" t="str">
-        <f t="shared" si="2"/>
-        <v>TILE1</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="3"/>
-        <v>`</v>
-      </c>
-      <c r="K54" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="5"/>
-        <v>TROPHY ='G'</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="I55" t="str">
-        <f t="shared" si="2"/>
-        <v>TILE2</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="3"/>
-        <v>¬</v>
-      </c>
-      <c r="K55" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="5"/>
-        <v>UP ='+'</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="I56" t="str">
-        <f t="shared" si="2"/>
-        <v>TILE3</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="3"/>
-        <v>.</v>
-      </c>
-      <c r="K56" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="5"/>
-        <v>WALL =':'</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="I57" t="str">
-        <f t="shared" si="2"/>
-        <v>TILE4</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="3"/>
-        <v>~</v>
-      </c>
-      <c r="K57" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="5"/>
-        <v>WALL_BL ='('</v>
-      </c>
-      <c r="H58" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" si="2"/>
-        <v>TRAP1</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="3"/>
-        <v>^</v>
-      </c>
-      <c r="K58" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="5"/>
-        <v>WALL_BR =')'</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="I59" t="str">
-        <f t="shared" si="2"/>
-        <v>TRAP2</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="3"/>
-        <v>&amp;</v>
-      </c>
-      <c r="K59" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="5"/>
-        <v>WALL_TL ='/'</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="I60" t="str">
-        <f t="shared" si="2"/>
-        <v>TRAP3</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="3"/>
-        <v>[</v>
-      </c>
-      <c r="K60" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="5"/>
-        <v>WALL_TR ='\\'</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="I61" t="str">
-        <f t="shared" si="2"/>
-        <v>TREASURE</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="3"/>
-        <v>*</v>
-      </c>
-      <c r="K61" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="5"/>
-        <v>WATER ='w'</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="I62" t="str">
-        <f t="shared" si="2"/>
-        <v>TREASURE_CHEST</v>
-      </c>
-      <c r="J62" t="str">
-        <f t="shared" si="3"/>
-        <v>j</v>
-      </c>
-      <c r="K62" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="5"/>
-        <v>WEAPON ='|'</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="I63" t="str">
-        <f t="shared" si="2"/>
-        <v>TREASURE10</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="K63" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="5"/>
-        <v>WEST ='W'</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="I64" t="str">
-        <f t="shared" si="2"/>
-        <v>TREASURE25</v>
-      </c>
-      <c r="J64" t="str">
-        <f t="shared" si="3"/>
-        <v>X</v>
-      </c>
-      <c r="K64" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H65" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="I65" t="str">
-        <f t="shared" si="2"/>
-        <v>TREE</v>
-      </c>
-      <c r="J65" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="K65" s="20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H66" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="I66" t="str">
-        <f t="shared" si="2"/>
-        <v>TROPHY</v>
-      </c>
-      <c r="J66" t="str">
-        <f t="shared" si="3"/>
-        <v>G</v>
-      </c>
-      <c r="K66" s="20" t="b">
-        <f t="shared" ref="K66:K76" si="6">SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H67" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="I67" t="str">
-        <f t="shared" ref="I67:I76" si="7">TRIM(MID($H67,1,FIND("=",$H67)-1))</f>
-        <v>UP</v>
-      </c>
-      <c r="J67" t="str">
-        <f t="shared" ref="J67:J76" si="8">SUBSTITUTE(TRIM(MID($H67,FIND("=",$H67)+1,200)),"'","")</f>
-        <v>+</v>
-      </c>
-      <c r="K67" s="20" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H68" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="I68" t="str">
-        <f t="shared" si="7"/>
-        <v>WALL</v>
-      </c>
-      <c r="J68" t="str">
-        <f t="shared" si="8"/>
-        <v>:</v>
-      </c>
-      <c r="K68" s="20" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H69" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="I69" t="str">
-        <f t="shared" si="7"/>
-        <v>WALL_BL</v>
-      </c>
-      <c r="J69" t="str">
-        <f t="shared" si="8"/>
-        <v>(</v>
-      </c>
-      <c r="K69" s="20" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H70" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="I70" t="str">
-        <f t="shared" si="7"/>
-        <v>WALL_BR</v>
-      </c>
-      <c r="J70" t="str">
-        <f t="shared" si="8"/>
-        <v>)</v>
-      </c>
-      <c r="K70" s="20" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H71" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="I71" t="str">
-        <f t="shared" si="7"/>
-        <v>WALL_TL</v>
-      </c>
-      <c r="J71" t="str">
-        <f t="shared" si="8"/>
-        <v>/</v>
-      </c>
-      <c r="K71" s="20" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H72" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="I72" t="str">
-        <f t="shared" si="7"/>
-        <v>WALL_TR</v>
-      </c>
-      <c r="J72" t="str">
-        <f t="shared" si="8"/>
-        <v>\\</v>
-      </c>
-      <c r="K72" s="20" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H73" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="I73" t="str">
-        <f t="shared" si="7"/>
-        <v>WALL2</v>
-      </c>
-      <c r="J73" t="str">
-        <f t="shared" si="8"/>
-        <v>w</v>
-      </c>
-      <c r="K73" s="20" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H74" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="I74" t="str">
-        <f t="shared" si="7"/>
-        <v>WALL3</v>
-      </c>
-      <c r="J74" t="str">
-        <f t="shared" si="8"/>
-        <v>e</v>
-      </c>
-      <c r="K74" s="20" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H75" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="I75" t="str">
-        <f t="shared" si="7"/>
-        <v>WEAPON</v>
-      </c>
-      <c r="J75" t="str">
-        <f t="shared" si="8"/>
-        <v>|</v>
-      </c>
-      <c r="K75" s="20" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H76" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="I76" t="str">
-        <f t="shared" si="7"/>
-        <v>WEST</v>
-      </c>
-      <c r="J76" t="str">
-        <f t="shared" si="8"/>
-        <v>W</v>
-      </c>
-      <c r="K76" s="20" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="C1:C64"/>
+  <autoFilter ref="C1:C65"/>
   <sortState ref="B2:D67">
     <sortCondition ref="B2:B67"/>
   </sortState>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="D1:D31 D33:D1048576">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K76">
+  <conditionalFormatting sqref="K2:K31 K33:K77">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -34137,12 +34443,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="62" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="58" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34271,7 +34577,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>6</v>
@@ -34346,7 +34652,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>6</v>
@@ -34421,7 +34727,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>6</v>
@@ -34496,7 +34802,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>6</v>
@@ -34517,7 +34823,7 @@
         <v>6</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="R5" s="14" t="s">
         <v>6</v>
@@ -34571,7 +34877,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>6</v>
@@ -34625,7 +34931,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>6</v>
@@ -34643,10 +34949,10 @@
         <v>6</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>6</v>
@@ -34697,31 +35003,31 @@
         <v>22</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>6</v>
@@ -34796,7 +35102,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>6</v>
@@ -34868,13 +35174,13 @@
         <v>6</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>6</v>
@@ -34943,37 +35249,37 @@
         <v>6</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="T11" s="14" t="s">
         <v>23</v>
@@ -35018,22 +35324,22 @@
         <v>6</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>6</v>
@@ -35054,7 +35360,7 @@
         <v>6</v>
       </c>
       <c r="U12" s="8"/>
-      <c r="V12" s="30" t="s">
+      <c r="V12" s="27" t="s">
         <v>17</v>
       </c>
       <c r="W12" s="8"/>
@@ -35107,7 +35413,7 @@
         <v>6</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>6</v>
@@ -35149,7 +35455,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -35182,7 +35488,7 @@
         <v>6</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="N14" s="14" t="s">
         <v>6</v>
@@ -35257,7 +35563,7 @@
         <v>6</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="N15" s="14" t="s">
         <v>6</v>
@@ -35308,7 +35614,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>9</v>
@@ -35332,7 +35638,7 @@
         <v>6</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="N16" s="14" t="s">
         <v>6</v>
@@ -35383,7 +35689,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F17" s="14">
         <v>8</v>
@@ -35407,7 +35713,7 @@
         <v>6</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>10</v>
@@ -35458,31 +35764,31 @@
         <v>6</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="N18" s="14" t="s">
         <v>6</v>
@@ -35548,7 +35854,7 @@
         <v>6</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>6</v>
@@ -35872,22 +36178,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y13 A18:Y25 A14:C17 G14:Y17">
-    <cfRule type="expression" dxfId="57" priority="4">
+    <cfRule type="expression" dxfId="60" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z13 A18:Z25 A14:C17 G14:Z17">
-    <cfRule type="cellIs" dxfId="56" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="expression" dxfId="55" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36115,7 +36421,7 @@
         <v>6</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="S3" s="14" t="s">
         <v>6</v>
@@ -36145,7 +36451,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>6</v>
@@ -36607,7 +36913,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>6</v>
@@ -36616,7 +36922,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>6</v>
@@ -36625,7 +36931,7 @@
         <v>6</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>6</v>
@@ -36688,13 +36994,13 @@
         <v>6</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>6</v>
@@ -36757,7 +37063,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>6</v>
@@ -36766,7 +37072,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>6</v>
@@ -36775,7 +37081,7 @@
         <v>6</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="N12" s="14" t="s">
         <v>6</v>
@@ -37081,7 +37387,7 @@
         <v>6</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="P16" s="14" t="s">
         <v>6</v>
@@ -37126,7 +37432,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>6</v>
@@ -37264,7 +37570,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>6</v>
@@ -37615,12 +37921,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37749,7 +38055,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>2</v>
@@ -37818,19 +38124,19 @@
         <v>6</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>6</v>
@@ -38274,7 +38580,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>6</v>
@@ -38448,7 +38754,7 @@
         <v>15</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S11" s="14" t="s">
         <v>8</v>
@@ -38499,7 +38805,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>2</v>
@@ -38625,7 +38931,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -38949,7 +39255,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>2</v>
@@ -39348,12 +39654,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="51" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39458,7 +39764,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>7</v>
@@ -39956,10 +40262,10 @@
         <v>6</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="T8" s="7" t="s">
         <v>2</v>
@@ -40058,7 +40364,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>7</v>
@@ -40106,7 +40412,7 @@
         <v>6</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="S10" s="14" t="s">
         <v>25</v>
@@ -40256,10 +40562,10 @@
         <v>6</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="T12" s="7" t="s">
         <v>2</v>
@@ -40661,7 +40967,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>2</v>
@@ -40706,7 +41012,7 @@
         <v>2</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S18" s="14" t="s">
         <v>2</v>
@@ -40736,7 +41042,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>2</v>
@@ -40781,7 +41087,7 @@
         <v>2</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S19" s="14" t="s">
         <v>25</v>
@@ -41173,12 +41479,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y26">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41892,10 +42198,10 @@
         <v>6</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>2</v>
@@ -41967,10 +42273,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>7</v>
@@ -42042,10 +42348,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>2</v>
@@ -42906,22 +43212,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="47" priority="4">
+    <cfRule type="expression" dxfId="50" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="46" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43029,7 +43335,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>6</v>
@@ -43101,10 +43407,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>6</v>
@@ -44274,10 +44580,10 @@
         <v>6</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="T18" s="14" t="s">
         <v>2</v>
@@ -44349,7 +44655,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="S19" s="14" t="s">
         <v>5</v>
@@ -44649,12 +44955,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder 20170212.xlsx
+++ b/game_template/model/data/floor builder 20170212.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="11" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8682" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8682" uniqueCount="274">
   <si>
     <t>width</t>
   </si>
@@ -2185,6 +2185,9 @@
   <si>
     <t>PLAYER_THIEF</t>
   </si>
+  <si>
+    <t>C</t>
+  </si>
 </sst>
 </file>
 
@@ -2375,7 +2378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2439,26 +2442,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <fill>
         <patternFill>
@@ -2914,13 +2906,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5614,12 +5599,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7347,22 +7332,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9090,22 +9075,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9118,8 +9103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB1:AB20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9540,7 +9525,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>6</v>
@@ -9573,11 +9558,11 @@
       <c r="Y6" s="9"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>~~~~:) j:-:j (:~.~~~</v>
+        <v>~~~~:) j:-:C (:~.~~~</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~:) j:-:j (:~.~~~',</v>
+        <v>'~~~~:) j:-:C (:~.~~~',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -10055,14 +10040,14 @@
       <c r="H13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
+      <c r="K13" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>63</v>
@@ -10098,11 +10083,11 @@
       <c r="Y13" s="9"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v>.~~~:  x/+\x  :~~~.~</v>
+        <v>.~~~:  x/+\\x  :~~~.~</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'.~~~:  x/+\x  :~~~.~',</v>
+        <v>'.~~~:  x/+\\x  :~~~.~',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -10121,8 +10106,8 @@
       <c r="E14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
+      <c r="F14" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>63</v>
@@ -10173,11 +10158,11 @@
       <c r="Y14" s="9"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v>~~~~:\x:::::x/:~~~~~</v>
+        <v>~~~~:\\x:::::x/:~~~~~</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~:\x:::::x/:~~~~~',</v>
+        <v>'~~~~:\\x:::::x/:~~~~~',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -10833,27 +10818,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F14" r:id="rId1"/>
+    <hyperlink ref="K13" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -12574,12 +12563,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14307,12 +14296,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16040,12 +16029,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17776,12 +17765,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19509,12 +19498,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21242,12 +21231,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22975,12 +22964,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24708,12 +24697,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="64" priority="2">
+    <cfRule type="expression" dxfId="62" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26500,22 +26489,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28383,17 +28372,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30261,32 +30250,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Y20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30299,9 +30288,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30346,11 +30335,11 @@
         <v>37</v>
       </c>
       <c r="D2" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C2)))&gt;1</f>
+        <f t="shared" ref="D2:D33" si="0">SUMPRODUCT(--(EXACT(C:C,C2)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E34" si="0">B2&amp;"='"&amp;C2&amp;"'"</f>
+        <f t="shared" ref="E2:E34" si="1">B2&amp;"='"&amp;C2&amp;"'"</f>
         <v>BANG='$'</v>
       </c>
       <c r="H2" s="24" t="s">
@@ -30365,7 +30354,7 @@
         <v>$</v>
       </c>
       <c r="K2" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J2)))&gt;1</f>
+        <f t="shared" ref="K2:K33" si="2">SUMPRODUCT(--(EXACT(J:J,J2)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30377,26 +30366,26 @@
         <v>38</v>
       </c>
       <c r="D3" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C3)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOMB='q'</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>70</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I67" si="1">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
+        <f t="shared" ref="I3:I67" si="3">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
         <v>BOMB</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J67" si="2">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
+        <f t="shared" ref="J3:J67" si="4">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
         <v>q</v>
       </c>
       <c r="K3" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J3)))&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30408,26 +30397,26 @@
         <v>39</v>
       </c>
       <c r="D4" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C4)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOMB_LIT='Q'</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>71</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BOMB_LIT</v>
       </c>
       <c r="J4" t="str">
+        <f t="shared" si="4"/>
+        <v>Q</v>
+      </c>
+      <c r="K4" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>Q</v>
-      </c>
-      <c r="K4" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J4)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30439,26 +30428,26 @@
         <v>168</v>
       </c>
       <c r="D5" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C5)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOSS_DOOR='F'</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>169</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BOSS_DOOR</v>
       </c>
       <c r="J5" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="K5" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="K5" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J5)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30470,26 +30459,26 @@
         <v>188</v>
       </c>
       <c r="D6" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C6)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOSS_DOOR_OPEN='f'</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>170</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BOSS_DOOR_OPEN</v>
       </c>
       <c r="J6" t="str">
+        <f t="shared" si="4"/>
+        <v>f</v>
+      </c>
+      <c r="K6" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>f</v>
-      </c>
-      <c r="K6" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J6)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30501,26 +30490,26 @@
         <v>9</v>
       </c>
       <c r="D7" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C7)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BRAZIER='B'</v>
       </c>
       <c r="H7" s="25" t="s">
         <v>72</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BRAZIER</v>
       </c>
       <c r="J7" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="K7" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="K7" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J7)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30532,26 +30521,26 @@
         <v>17</v>
       </c>
       <c r="D8" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C8)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DECORATION1='z'</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>73</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DECORATION1</v>
       </c>
       <c r="J8" t="str">
+        <f t="shared" si="4"/>
+        <v>z</v>
+      </c>
+      <c r="K8" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>z</v>
-      </c>
-      <c r="K8" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J8)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30563,26 +30552,26 @@
         <v>41</v>
       </c>
       <c r="D9" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C9)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DECORATION2='Z'</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>74</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DECORATION2</v>
       </c>
       <c r="J9" t="str">
+        <f t="shared" si="4"/>
+        <v>Z</v>
+      </c>
+      <c r="K9" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>Z</v>
-      </c>
-      <c r="K9" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J9)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30594,26 +30583,26 @@
         <v>7</v>
       </c>
       <c r="D10" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C10)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOOR='D'</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>75</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DOOR</v>
       </c>
       <c r="J10" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="K10" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>D</v>
-      </c>
-      <c r="K10" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J10)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30625,26 +30614,26 @@
         <v>40</v>
       </c>
       <c r="D11" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C11)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOOR_OPEN='d'</v>
       </c>
       <c r="H11" s="25" t="s">
         <v>171</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DOOR_OPEN</v>
       </c>
       <c r="J11" t="str">
+        <f t="shared" si="4"/>
+        <v>d</v>
+      </c>
+      <c r="K11" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>d</v>
-      </c>
-      <c r="K11" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J11)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30656,26 +30645,26 @@
         <v>42</v>
       </c>
       <c r="D12" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C12)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOT1='!'</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>76</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DOT1</v>
       </c>
       <c r="J12" t="str">
+        <f t="shared" si="4"/>
+        <v>!</v>
+      </c>
+      <c r="K12" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>!</v>
-      </c>
-      <c r="K12" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J12)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30687,26 +30676,26 @@
         <v>43</v>
       </c>
       <c r="D13" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C13)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOT2='£'</v>
       </c>
       <c r="H13" s="25" t="s">
         <v>77</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DOT2</v>
       </c>
       <c r="J13" t="str">
+        <f t="shared" si="4"/>
+        <v>£</v>
+      </c>
+      <c r="K13" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>£</v>
-      </c>
-      <c r="K13" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J13)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30718,26 +30707,26 @@
         <v>16</v>
       </c>
       <c r="D14" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C14)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOWN='-'</v>
       </c>
       <c r="H14" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DOWN</v>
       </c>
       <c r="J14" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="K14" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="K14" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J14)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30749,26 +30738,26 @@
         <v>23</v>
       </c>
       <c r="D15" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C15)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EAST='E'</v>
       </c>
       <c r="H15" s="25" t="s">
         <v>79</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>EAST</v>
       </c>
       <c r="J15" t="str">
+        <f t="shared" si="4"/>
+        <v>E</v>
+      </c>
+      <c r="K15" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>E</v>
-      </c>
-      <c r="K15" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J15)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30780,26 +30769,26 @@
         <v>6</v>
       </c>
       <c r="D16" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C16)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMPTY=' '</v>
       </c>
       <c r="H16" s="25" t="s">
         <v>80</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>EMPTY</v>
       </c>
       <c r="J16" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K16" s="18" t="b">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K16" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J16)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30811,26 +30800,26 @@
         <v>44</v>
       </c>
       <c r="D17" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C17)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EXIT_KEY='%'</v>
       </c>
       <c r="H17" s="25" t="s">
         <v>81</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>EXIT_KEY</v>
       </c>
       <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v>%</v>
+      </c>
+      <c r="K17" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="K17" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J17)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30842,26 +30831,26 @@
         <v>45</v>
       </c>
       <c r="D18" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C18)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HEART='HP'</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HEART</v>
       </c>
       <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v>HP</v>
+      </c>
+      <c r="K18" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>HP</v>
-      </c>
-      <c r="K18" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J18)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30873,26 +30862,26 @@
         <v>202</v>
       </c>
       <c r="D19" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C19)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>REPLENISH='"H"'</v>
       </c>
       <c r="H19" s="25" t="s">
         <v>172</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>REPLENISH</v>
       </c>
       <c r="J19" t="str">
+        <f t="shared" si="4"/>
+        <v>"H"</v>
+      </c>
+      <c r="K19" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>"H"</v>
-      </c>
-      <c r="K19" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J19)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30904,26 +30893,26 @@
         <v>8</v>
       </c>
       <c r="D20" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C20)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>KEY='?'</v>
       </c>
       <c r="H20" s="25" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>KEY</v>
       </c>
       <c r="J20" t="str">
+        <f t="shared" si="4"/>
+        <v>?</v>
+      </c>
+      <c r="K20" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>?</v>
-      </c>
-      <c r="K20" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J20)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30935,26 +30924,26 @@
         <v>46</v>
       </c>
       <c r="D21" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C21)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MAP='M'</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>84</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MAP</v>
       </c>
       <c r="J21" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
+      </c>
+      <c r="K21" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>M</v>
-      </c>
-      <c r="K21" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J21)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30966,26 +30955,26 @@
         <v>206</v>
       </c>
       <c r="D22" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C22)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MONSTER1='1'</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>85</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MONSTER1</v>
       </c>
       <c r="J22" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K22" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J22)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -30997,26 +30986,26 @@
         <v>208</v>
       </c>
       <c r="D23" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C23)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MONSTER2='2'</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>86</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MONSTER2</v>
       </c>
       <c r="J23" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K23" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K23" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J23)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -31028,26 +31017,26 @@
         <v>210</v>
       </c>
       <c r="D24" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C24)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MONSTER3='3'</v>
       </c>
       <c r="H24" s="25" t="s">
         <v>87</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MONSTER3</v>
       </c>
       <c r="J24" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K24" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K24" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J24)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -31059,26 +31048,26 @@
         <v>212</v>
       </c>
       <c r="D25" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C25)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOSS='4'</v>
       </c>
       <c r="H25" s="25" t="s">
         <v>173</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BOSS</v>
       </c>
       <c r="J25" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K25" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="K25" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J25)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -31090,26 +31079,26 @@
         <v>214</v>
       </c>
       <c r="D26" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C26)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOSS_KEY='K'</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>174</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BOSS_KEY</v>
       </c>
       <c r="J26" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
+      </c>
+      <c r="K26" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>K</v>
-      </c>
-      <c r="K26" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J26)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -31121,26 +31110,26 @@
         <v>24</v>
       </c>
       <c r="D27" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C27)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NEXT_LEVEL='L'</v>
       </c>
       <c r="H27" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NEXT_LEVEL</v>
       </c>
       <c r="J27" t="str">
+        <f t="shared" si="4"/>
+        <v>L</v>
+      </c>
+      <c r="K27" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>L</v>
-      </c>
-      <c r="K27" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J27)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -31152,26 +31141,26 @@
         <v>20</v>
       </c>
       <c r="D28" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C28)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORTH='N'</v>
       </c>
       <c r="H28" s="25" t="s">
         <v>89</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORTH</v>
       </c>
       <c r="J28" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="K28" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>N</v>
-      </c>
-      <c r="K28" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J28)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -31183,26 +31172,26 @@
         <v>47</v>
       </c>
       <c r="D29" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C29)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PLAYER='P'</v>
       </c>
       <c r="H29" s="25" t="s">
         <v>90</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>PLAYER</v>
       </c>
       <c r="J29" t="str">
+        <f t="shared" si="4"/>
+        <v>P</v>
+      </c>
+      <c r="K29" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-      <c r="K29" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J29)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -31214,26 +31203,26 @@
         <v>219</v>
       </c>
       <c r="D30" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C30)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PLAYER_ARMOUR='p'</v>
       </c>
       <c r="H30" s="25" t="s">
         <v>175</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>PLAYER_ARMOUR</v>
       </c>
       <c r="J30" t="str">
+        <f t="shared" si="4"/>
+        <v>p</v>
+      </c>
+      <c r="K30" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>p</v>
-      </c>
-      <c r="K30" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J30)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -31245,26 +31234,26 @@
         <v>221</v>
       </c>
       <c r="D31" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C31)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PLAYER_GOLD='g'</v>
       </c>
       <c r="H31" s="25" t="s">
         <v>176</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>PLAYER_GOLD</v>
       </c>
       <c r="J31" t="str">
+        <f t="shared" si="4"/>
+        <v>g</v>
+      </c>
+      <c r="K31" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>g</v>
-      </c>
-      <c r="K31" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J31)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -31276,26 +31265,26 @@
         <v>271</v>
       </c>
       <c r="D32" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C32)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" ref="E32" si="3">B32&amp;"='"&amp;C32&amp;"'"</f>
+        <f t="shared" ref="E32" si="5">B32&amp;"='"&amp;C32&amp;"'"</f>
         <v>PLAYER_THIEF='a'</v>
       </c>
       <c r="H32" s="25" t="s">
         <v>176</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>PLAYER_GOLD</v>
       </c>
       <c r="J32" t="str">
+        <f t="shared" si="4"/>
+        <v>g</v>
+      </c>
+      <c r="K32" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>g</v>
-      </c>
-      <c r="K32" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J32)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -31307,26 +31296,26 @@
         <v>223</v>
       </c>
       <c r="D33" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C33)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PLAYER_SPIKE='A'</v>
       </c>
       <c r="H33" s="25" t="s">
         <v>177</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>PLAYER_SPIKE</v>
       </c>
       <c r="J33" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="K33" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>A</v>
-      </c>
-      <c r="K33" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J33)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -31338,26 +31327,26 @@
         <v>225</v>
       </c>
       <c r="D34" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C34)))&gt;1</f>
+        <f t="shared" ref="D34:D65" si="6">SUMPRODUCT(--(EXACT(C:C,C34)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NPC1='Y'</v>
       </c>
       <c r="H34" s="25" t="s">
         <v>178</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NPC1</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K34" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J34)))&gt;1</f>
+        <f t="shared" ref="K34:K65" si="7">SUMPRODUCT(--(EXACT(J:J,J34)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -31369,26 +31358,26 @@
         <v>227</v>
       </c>
       <c r="D35" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C35)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" ref="E35:E65" si="4">B35&amp;"='"&amp;C35&amp;"'"</f>
+        <f t="shared" ref="E35:E65" si="8">B35&amp;"='"&amp;C35&amp;"'"</f>
         <v>NPC2='y'</v>
       </c>
       <c r="H35" s="25" t="s">
         <v>179</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NPC2</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="K35" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J35)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31400,26 +31389,26 @@
         <v>29</v>
       </c>
       <c r="D36" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C36)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>PREVIOUS_LEVEL='l'</v>
       </c>
       <c r="H36" s="25" t="s">
         <v>91</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>PREVIOUS_LEVEL</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>l</v>
       </c>
       <c r="K36" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J36)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31431,26 +31420,26 @@
         <v>48</v>
       </c>
       <c r="D37" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C37)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>RED_POTION='R'</v>
       </c>
       <c r="H37" s="25" t="s">
         <v>92</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RED_POTION</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R</v>
       </c>
       <c r="K37" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J37)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31462,26 +31451,26 @@
         <v>49</v>
       </c>
       <c r="D38" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C38)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>RUNE='u'</v>
       </c>
       <c r="H38" s="25" t="s">
         <v>93</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>u</v>
       </c>
       <c r="K38" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J38)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31493,26 +31482,26 @@
         <v>50</v>
       </c>
       <c r="D39" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C39)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>RUNE1='R1'</v>
       </c>
       <c r="H39" s="25" t="s">
         <v>94</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE1</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R1</v>
       </c>
       <c r="K39" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J39)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31524,26 +31513,26 @@
         <v>51</v>
       </c>
       <c r="D40" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C40)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>RUNE2='R2'</v>
       </c>
       <c r="H40" s="25" t="s">
         <v>95</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE2</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R2</v>
       </c>
       <c r="K40" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J40)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31555,26 +31544,26 @@
         <v>52</v>
       </c>
       <c r="D41" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C41)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>RUNE3='R3'</v>
       </c>
       <c r="H41" s="25" t="s">
         <v>96</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE3</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R3</v>
       </c>
       <c r="K41" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J41)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31586,26 +31575,26 @@
         <v>53</v>
       </c>
       <c r="D42" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C42)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>RUNE4='R4'</v>
       </c>
       <c r="H42" s="25" t="s">
         <v>97</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE4</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R4</v>
       </c>
       <c r="K42" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J42)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31617,26 +31606,26 @@
         <v>54</v>
       </c>
       <c r="D43" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C43)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>RUNE5='R5'</v>
       </c>
       <c r="H43" s="25" t="s">
         <v>98</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE5</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R5</v>
       </c>
       <c r="K43" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J43)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31648,26 +31637,26 @@
         <v>237</v>
       </c>
       <c r="D44" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C44)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SAFETY='8'</v>
       </c>
       <c r="H44" s="25" t="s">
         <v>99</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SAFETY</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="K44" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J44)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31679,26 +31668,26 @@
         <v>55</v>
       </c>
       <c r="D45" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C45)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SECRET_TREASURE='J'</v>
       </c>
       <c r="H45" s="25" t="s">
         <v>100</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SECRET_TREASURE</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>J</v>
       </c>
       <c r="K45" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J45)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31710,26 +31699,26 @@
         <v>15</v>
       </c>
       <c r="D46" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C46)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SECRET_WALL=';'</v>
       </c>
       <c r="H46" s="25" t="s">
         <v>101</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SECRET_WALL</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>;</v>
       </c>
       <c r="K46" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J46)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31741,26 +31730,26 @@
         <v>28</v>
       </c>
       <c r="D47" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C47)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SHIELD='O'</v>
       </c>
       <c r="H47" s="25" t="s">
         <v>102</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SHIELD</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>O</v>
       </c>
       <c r="K47" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J47)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31772,26 +31761,26 @@
         <v>21</v>
       </c>
       <c r="D48" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C48)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SHOP='s'</v>
       </c>
       <c r="H48" s="25" t="s">
         <v>103</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SHOP</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="K48" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J48)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31803,26 +31792,26 @@
         <v>56</v>
       </c>
       <c r="D49" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C49)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SHOP_KEEPER='SHOP'</v>
       </c>
       <c r="H49" s="25" t="s">
         <v>104</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SHOP_KEEPER</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SHOP</v>
       </c>
       <c r="K49" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J49)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31834,26 +31823,26 @@
         <v>18</v>
       </c>
       <c r="D50" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C50)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SOUTH='S'</v>
       </c>
       <c r="H50" s="25" t="s">
         <v>105</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SOUTH</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="K50" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J50)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31865,26 +31854,26 @@
         <v>19</v>
       </c>
       <c r="D51" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C51)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>START_POSITION='='</v>
       </c>
       <c r="H51" s="25" t="s">
         <v>180</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>START_POSITION</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>=</v>
       </c>
       <c r="K51" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J51)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31896,26 +31885,26 @@
         <v>57</v>
       </c>
       <c r="D52" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C52)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SWITCH=','</v>
       </c>
       <c r="H52" s="25" t="s">
         <v>106</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SWITCH</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="K52" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J52)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31927,26 +31916,26 @@
         <v>58</v>
       </c>
       <c r="D53" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C53)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SWITCH_LIT='&lt;'</v>
       </c>
       <c r="H53" s="25" t="s">
         <v>107</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SWITCH_LIT</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;</v>
       </c>
       <c r="K53" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J53)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31958,26 +31947,26 @@
         <v>59</v>
       </c>
       <c r="D54" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C54)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SWITCH_TILE='_'</v>
       </c>
       <c r="H54" s="25" t="s">
         <v>108</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SWITCH_TILE</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>_</v>
       </c>
       <c r="K54" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J54)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31989,26 +31978,26 @@
         <v>130</v>
       </c>
       <c r="D55" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C55)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TILE1='`'</v>
       </c>
       <c r="H55" s="25" t="s">
         <v>181</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TILE1</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>`</v>
       </c>
       <c r="K55" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J55)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32020,26 +32009,26 @@
         <v>150</v>
       </c>
       <c r="D56" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C56)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TILE2='¬'</v>
       </c>
       <c r="H56" s="25" t="s">
         <v>129</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TILE2</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>¬</v>
       </c>
       <c r="K56" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J56)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32051,26 +32040,26 @@
         <v>27</v>
       </c>
       <c r="D57" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C57)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TILE3='.'</v>
       </c>
       <c r="H57" s="25" t="s">
         <v>127</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TILE3</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>.</v>
       </c>
       <c r="K57" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J57)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32082,26 +32071,26 @@
         <v>26</v>
       </c>
       <c r="D58" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C58)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TILE4='~'</v>
       </c>
       <c r="H58" s="25" t="s">
         <v>128</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TILE4</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>~</v>
       </c>
       <c r="K58" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J58)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32113,26 +32102,26 @@
         <v>60</v>
       </c>
       <c r="D59" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C59)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TRAP1='^'</v>
       </c>
       <c r="H59" s="25" t="s">
         <v>109</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TRAP1</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>^</v>
       </c>
       <c r="K59" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J59)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32144,26 +32133,26 @@
         <v>61</v>
       </c>
       <c r="D60" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C60)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TRAP2='&amp;'</v>
       </c>
       <c r="H60" s="25" t="s">
         <v>110</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TRAP2</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&amp;</v>
       </c>
       <c r="K60" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J60)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32175,26 +32164,26 @@
         <v>35</v>
       </c>
       <c r="D61" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C61)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TRAP3='['</v>
       </c>
       <c r="H61" s="25" t="s">
         <v>111</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TRAP3</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[</v>
       </c>
       <c r="K61" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J61)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32206,26 +32195,26 @@
         <v>62</v>
       </c>
       <c r="D62" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C62)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TREASURE='*'</v>
       </c>
       <c r="H62" s="25" t="s">
         <v>112</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TREASURE</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>*</v>
       </c>
       <c r="K62" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J62)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32237,26 +32226,26 @@
         <v>25</v>
       </c>
       <c r="D63" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C63)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TREASURE_CHEST='j'</v>
       </c>
       <c r="H63" s="25" t="s">
         <v>113</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TREASURE_CHEST</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>j</v>
       </c>
       <c r="K63" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J63)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32268,26 +32257,26 @@
         <v>63</v>
       </c>
       <c r="D64" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C64)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TREASURE10='x'</v>
       </c>
       <c r="H64" s="25" t="s">
         <v>114</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TREASURE10</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="K64" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J64)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32299,26 +32288,26 @@
         <v>64</v>
       </c>
       <c r="D65" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C65)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TREASURE25='X'</v>
       </c>
       <c r="H65" s="25" t="s">
         <v>115</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TREASURE25</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="K65" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J65)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32330,26 +32319,26 @@
         <v>10</v>
       </c>
       <c r="D66" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
+        <f t="shared" ref="D66:D97" si="9">SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E77" si="5">B66&amp;"='"&amp;C66&amp;"'"</f>
+        <f t="shared" ref="E66:E77" si="10">B66&amp;"='"&amp;C66&amp;"'"</f>
         <v>TREE='T'</v>
       </c>
       <c r="H66" s="25" t="s">
         <v>116</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TREE</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="K66" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
+        <f t="shared" ref="K66:K97" si="11">SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -32361,26 +32350,26 @@
         <v>65</v>
       </c>
       <c r="D67" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C67)))&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>TROPHY='G'</v>
       </c>
       <c r="H67" s="25" t="s">
         <v>117</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TROPHY</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>G</v>
       </c>
       <c r="K67" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J67)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -32392,26 +32381,26 @@
         <v>5</v>
       </c>
       <c r="D68" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C68)))&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>UP='+'</v>
       </c>
       <c r="H68" s="25" t="s">
         <v>118</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" ref="I68:I77" si="6">TRIM(MID($H68,1,FIND("=",$H68)-1))</f>
+        <f t="shared" ref="I68:I77" si="12">TRIM(MID($H68,1,FIND("=",$H68)-1))</f>
         <v>UP</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" ref="J68:J77" si="7">SUBSTITUTE(TRIM(MID($H68,FIND("=",$H68)+1,200)),"'","")</f>
+        <f t="shared" ref="J68:J77" si="13">SUBSTITUTE(TRIM(MID($H68,FIND("=",$H68)+1,200)),"'","")</f>
         <v>+</v>
       </c>
       <c r="K68" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J68)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -32423,26 +32412,26 @@
         <v>2</v>
       </c>
       <c r="D69" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C69)))&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>WALL=':'</v>
       </c>
       <c r="H69" s="25" t="s">
         <v>119</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>WALL</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>:</v>
       </c>
       <c r="K69" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J69)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -32454,26 +32443,26 @@
         <v>14</v>
       </c>
       <c r="D70" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C70)))&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>WALL_BL='('</v>
       </c>
       <c r="H70" s="25" t="s">
         <v>120</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>WALL_BL</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>(</v>
       </c>
       <c r="K70" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J70)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -32485,26 +32474,26 @@
         <v>13</v>
       </c>
       <c r="D71" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C71)))&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>WALL_BR=')'</v>
       </c>
       <c r="H71" s="25" t="s">
         <v>121</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>WALL_BR</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>)</v>
       </c>
       <c r="K71" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J71)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -32516,26 +32505,26 @@
         <v>12</v>
       </c>
       <c r="D72" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C72)))&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>WALL_TL='/'</v>
       </c>
       <c r="H72" s="25" t="s">
         <v>122</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>WALL_TL</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="K72" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J72)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -32547,26 +32536,26 @@
         <v>66</v>
       </c>
       <c r="D73" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C73)))&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>WALL_TR='\\'</v>
       </c>
       <c r="H73" s="25" t="s">
         <v>123</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>WALL_TR</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>\\</v>
       </c>
       <c r="K73" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J73)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -32578,26 +32567,26 @@
         <v>31</v>
       </c>
       <c r="D74" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C74)))&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>WALL2='w'</v>
       </c>
       <c r="H74" s="25" t="s">
         <v>124</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>WALL2</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>w</v>
       </c>
       <c r="K74" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J74)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -32609,26 +32598,26 @@
         <v>268</v>
       </c>
       <c r="D75" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C75)))&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>WALL3='e'</v>
       </c>
       <c r="H75" s="25" t="s">
         <v>182</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>WALL3</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>e</v>
       </c>
       <c r="K75" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J75)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -32640,26 +32629,26 @@
         <v>30</v>
       </c>
       <c r="D76" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C76)))&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>WEAPON='|'</v>
       </c>
       <c r="H76" s="25" t="s">
         <v>125</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>WEAPON</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>|</v>
       </c>
       <c r="K76" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J76)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -32671,26 +32660,26 @@
         <v>22</v>
       </c>
       <c r="D77" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C77)))&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>WEST='W'</v>
       </c>
       <c r="H77" s="25" t="s">
         <v>126</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>WEST</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="K77" s="18" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J77)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -32700,22 +32689,22 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D31 D33:D1048576">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 K33:K77">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34443,12 +34432,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="62" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36178,22 +36167,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y13 A18:Y25 A14:C17 G14:Y17">
-    <cfRule type="expression" dxfId="60" priority="4">
+    <cfRule type="expression" dxfId="58" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z13 A18:Z25 A14:C17 G14:Z17">
-    <cfRule type="cellIs" dxfId="59" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37921,12 +37910,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39654,12 +39643,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41479,12 +41468,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y26">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43212,22 +43201,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="48" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44955,12 +44944,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
